--- a/freq_calcs.xlsx
+++ b/freq_calcs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MANTY\BlackboardSynth_MANTIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\School\MANTY\BlackboardSynth_MANTIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA5EA15-EFB6-4135-A67E-48BF7F1F38D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A1A1BF-B570-4021-8827-E8E8B0688FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="29">
   <si>
     <t>Up</t>
   </si>
@@ -105,37 +105,46 @@
     <t>C</t>
   </si>
   <si>
-    <t>C#</t>
-  </si>
-  <si>
-    <t>D#</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>F#</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
-    <t>G#</t>
-  </si>
-  <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>A#</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
     <t>Note+Oct</t>
+  </si>
+  <si>
+    <t>Db</t>
+  </si>
+  <si>
+    <t>Eb</t>
+  </si>
+  <si>
+    <t>Gb</t>
+  </si>
+  <si>
+    <t>Ab</t>
+  </si>
+  <si>
+    <t>Bb</t>
+  </si>
+  <si>
+    <t>Div Hex</t>
+  </si>
+  <si>
+    <t>Hex</t>
+  </si>
+  <si>
+    <t>Header</t>
   </si>
 </sst>
 </file>
@@ -453,18 +462,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -481,7 +492,7 @@
         <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
         <v>10</v>
@@ -495,8 +506,17 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -516,6 +536,10 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
+      <c r="I2" t="str">
+        <f>_xlfn.CONCAT(H2,G2)</f>
+        <v>C0</v>
+      </c>
       <c r="J2">
         <v>1</v>
       </c>
@@ -530,8 +554,20 @@
         <f t="array" ref="M2:M121">ROUND(L2:L121, 0)</f>
         <v>8495</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" t="str">
+        <f>DEC2HEX(M2, 8)</f>
+        <v>0000212F</v>
+      </c>
+      <c r="O2" t="str">
+        <f>_xlfn.CONCAT("0x", N2)</f>
+        <v>0x0000212F</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>_xlfn.CONCAT("#define ", I2, " ", J2)</f>
+        <v>#define C0 1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -545,7 +581,11 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="I3" t="str">
+        <f>_xlfn.CONCAT(H3,G3)</f>
+        <v>Db0</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -559,8 +599,20 @@
       <c r="M3">
         <v>8019</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" t="str">
+        <f>DEC2HEX(M3, 8)</f>
+        <v>00001F53</v>
+      </c>
+      <c r="O3" t="str">
+        <f>_xlfn.CONCAT("0x", N3)</f>
+        <v>0x00001F53</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q66" si="0">_xlfn.CONCAT("#define ", I3, " ", J3)</f>
+        <v>#define Db0 2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -576,6 +628,10 @@
       <c r="H4" t="s">
         <v>13</v>
       </c>
+      <c r="I4" t="str">
+        <f>_xlfn.CONCAT(H4,G4)</f>
+        <v>D0</v>
+      </c>
       <c r="J4">
         <v>3</v>
       </c>
@@ -588,8 +644,20 @@
       <c r="M4">
         <v>7569</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N67" si="1">DEC2HEX(M4, 8)</f>
+        <v>00001D91</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O67" si="2">_xlfn.CONCAT("0x", N4)</f>
+        <v>0x00001D91</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="0"/>
+        <v>#define D0 3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -600,7 +668,11 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5:I68" si="3">_xlfn.CONCAT(H5,G5)</f>
+        <v>Eb0</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -614,8 +686,20 @@
       <c r="M5">
         <v>7141</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" t="str">
+        <f t="shared" si="1"/>
+        <v>00001BE5</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00001BE5</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Eb0 4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16</v>
       </c>
@@ -626,7 +710,11 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="3"/>
+        <v>E0</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -640,8 +728,20 @@
       <c r="M6">
         <v>6742</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" t="str">
+        <f t="shared" si="1"/>
+        <v>00001A56</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00001A56</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="0"/>
+        <v>#define E0 5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
@@ -652,7 +752,11 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v>F0</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -666,8 +770,20 @@
       <c r="M7">
         <v>6362</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" t="str">
+        <f t="shared" si="1"/>
+        <v>000018DA</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000018DA</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="0"/>
+        <v>#define F0 6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>64</v>
       </c>
@@ -678,7 +794,11 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v>Gb0</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -692,8 +812,20 @@
       <c r="M8">
         <v>6007</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" t="str">
+        <f t="shared" si="1"/>
+        <v>00001777</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00001777</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Gb0 7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E9" t="e">
         <v>#DIV/0!</v>
       </c>
@@ -701,7 +833,11 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="3"/>
+        <v>G0</v>
       </c>
       <c r="J9">
         <v>8</v>
@@ -715,13 +851,29 @@
       <c r="M9">
         <v>5669</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" t="str">
+        <f t="shared" si="1"/>
+        <v>00001625</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00001625</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="0"/>
+        <v>#define G0 8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="3"/>
+        <v>Ab0</v>
       </c>
       <c r="J10">
         <v>9</v>
@@ -735,13 +887,29 @@
       <c r="M10">
         <v>5350</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" t="str">
+        <f t="shared" si="1"/>
+        <v>000014E6</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000014E6</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Ab0 9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="3"/>
+        <v>A0</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -755,13 +923,29 @@
       <c r="M11">
         <v>5051</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" t="str">
+        <f t="shared" si="1"/>
+        <v>000013BB</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000013BB</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="0"/>
+        <v>#define A0 10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="3"/>
+        <v>Bb0</v>
       </c>
       <c r="J12">
         <v>11</v>
@@ -775,8 +959,20 @@
       <c r="M12">
         <v>4766</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" t="str">
+        <f t="shared" si="1"/>
+        <v>0000129E</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="2"/>
+        <v>0x0000129E</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Bb0 11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -793,7 +989,11 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="3"/>
+        <v>B0</v>
       </c>
       <c r="J13">
         <v>12</v>
@@ -807,8 +1007,20 @@
       <c r="M13">
         <v>4499</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" t="str">
+        <f t="shared" si="1"/>
+        <v>00001193</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00001193</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="0"/>
+        <v>#define B0 12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -830,6 +1042,10 @@
       <c r="H14" t="s">
         <v>14</v>
       </c>
+      <c r="I14" t="str">
+        <f t="shared" si="3"/>
+        <v>C1</v>
+      </c>
       <c r="J14">
         <v>13</v>
       </c>
@@ -842,8 +1058,20 @@
       <c r="M14">
         <v>4247</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" t="str">
+        <f t="shared" si="1"/>
+        <v>00001097</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00001097</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="0"/>
+        <v>#define C1 13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -860,7 +1088,11 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="3"/>
+        <v>Db1</v>
       </c>
       <c r="J15">
         <v>14</v>
@@ -874,8 +1106,20 @@
       <c r="M15">
         <v>4008</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" t="str">
+        <f t="shared" si="1"/>
+        <v>00000FA8</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000FA8</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Db1 14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -894,6 +1138,10 @@
       <c r="H16" t="s">
         <v>13</v>
       </c>
+      <c r="I16" t="str">
+        <f t="shared" si="3"/>
+        <v>D1</v>
+      </c>
       <c r="J16">
         <v>15</v>
       </c>
@@ -906,8 +1154,20 @@
       <c r="M16">
         <v>3783</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16" t="str">
+        <f t="shared" si="1"/>
+        <v>00000EC7</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000EC7</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="0"/>
+        <v>#define D1 15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -924,7 +1184,11 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v>Eb1</v>
       </c>
       <c r="J17">
         <v>16</v>
@@ -938,8 +1202,20 @@
       <c r="M17">
         <v>3571</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17" t="str">
+        <f t="shared" si="1"/>
+        <v>00000DF3</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000DF3</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Eb1 16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -956,7 +1232,11 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="3"/>
+        <v>E1</v>
       </c>
       <c r="J18">
         <v>17</v>
@@ -970,8 +1250,20 @@
       <c r="M18">
         <v>3371</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18" t="str">
+        <f t="shared" si="1"/>
+        <v>00000D2B</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000D2B</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="0"/>
+        <v>#define E1 17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -988,7 +1280,11 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v>F1</v>
       </c>
       <c r="J19">
         <v>18</v>
@@ -1002,8 +1298,20 @@
       <c r="M19">
         <v>3182</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19" t="str">
+        <f t="shared" si="1"/>
+        <v>00000C6E</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000C6E</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="0"/>
+        <v>#define F1 18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -1020,7 +1328,11 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="3"/>
+        <v>Gb1</v>
       </c>
       <c r="J20">
         <v>19</v>
@@ -1034,8 +1346,20 @@
       <c r="M20">
         <v>3003</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20" t="str">
+        <f t="shared" si="1"/>
+        <v>00000BBB</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000BBB</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Gb1 19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -1052,7 +1376,11 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
+        <v>G1</v>
       </c>
       <c r="J21">
         <v>20</v>
@@ -1066,8 +1394,20 @@
       <c r="M21">
         <v>2834</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21" t="str">
+        <f t="shared" si="1"/>
+        <v>00000B12</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000B12</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="0"/>
+        <v>#define G1 20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -1084,7 +1424,11 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="3"/>
+        <v>Ab1</v>
       </c>
       <c r="J22">
         <v>21</v>
@@ -1098,8 +1442,20 @@
       <c r="M22">
         <v>2676</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22" t="str">
+        <f t="shared" si="1"/>
+        <v>00000A74</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000A74</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Ab1 21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
@@ -1116,7 +1472,11 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="3"/>
+        <v>A1</v>
       </c>
       <c r="J23">
         <v>22</v>
@@ -1130,8 +1490,20 @@
       <c r="M23">
         <v>2525</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23" t="str">
+        <f t="shared" si="1"/>
+        <v>000009DD</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000009DD</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="0"/>
+        <v>#define A1 22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
@@ -1148,7 +1520,11 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="3"/>
+        <v>Bb1</v>
       </c>
       <c r="J24">
         <v>23</v>
@@ -1162,8 +1538,20 @@
       <c r="M24">
         <v>2384</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24" t="str">
+        <f t="shared" si="1"/>
+        <v>00000950</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000950</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Bb1 23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
@@ -1180,7 +1568,11 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="3"/>
+        <v>B1</v>
       </c>
       <c r="J25">
         <v>24</v>
@@ -1194,14 +1586,30 @@
       <c r="M25">
         <v>2250</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25" t="str">
+        <f t="shared" si="1"/>
+        <v>000008CA</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000008CA</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="0"/>
+        <v>#define B1 24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>2</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
       </c>
+      <c r="I26" t="str">
+        <f t="shared" si="3"/>
+        <v>C2</v>
+      </c>
       <c r="J26">
         <v>25</v>
       </c>
@@ -1214,13 +1622,29 @@
       <c r="M26">
         <v>2123</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26" t="str">
+        <f t="shared" si="1"/>
+        <v>0000084B</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="2"/>
+        <v>0x0000084B</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="0"/>
+        <v>#define C2 25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="3"/>
+        <v>Db2</v>
       </c>
       <c r="J27">
         <v>26</v>
@@ -1234,14 +1658,30 @@
       <c r="M27">
         <v>2004</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27" t="str">
+        <f t="shared" si="1"/>
+        <v>000007D4</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000007D4</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Db2 26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G28">
         <v>2</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
       </c>
+      <c r="I28" t="str">
+        <f t="shared" si="3"/>
+        <v>D2</v>
+      </c>
       <c r="J28">
         <v>27</v>
       </c>
@@ -1254,13 +1694,29 @@
       <c r="M28">
         <v>1892</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N28" t="str">
+        <f t="shared" si="1"/>
+        <v>00000764</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000764</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="0"/>
+        <v>#define D2 27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G29">
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="3"/>
+        <v>Eb2</v>
       </c>
       <c r="J29">
         <v>28</v>
@@ -1274,13 +1730,29 @@
       <c r="M29">
         <v>1786</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N29" t="str">
+        <f t="shared" si="1"/>
+        <v>000006FA</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000006FA</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Eb2 28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G30">
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="3"/>
+        <v>E2</v>
       </c>
       <c r="J30">
         <v>29</v>
@@ -1294,13 +1766,29 @@
       <c r="M30">
         <v>1685</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N30" t="str">
+        <f t="shared" si="1"/>
+        <v>00000695</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000695</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="0"/>
+        <v>#define E2 29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G31">
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="3"/>
+        <v>F2</v>
       </c>
       <c r="J31">
         <v>30</v>
@@ -1314,13 +1802,29 @@
       <c r="M31">
         <v>1591</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N31" t="str">
+        <f t="shared" si="1"/>
+        <v>00000637</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000637</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="0"/>
+        <v>#define F2 30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G32">
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="3"/>
+        <v>Gb2</v>
       </c>
       <c r="J32">
         <v>31</v>
@@ -1334,13 +1838,29 @@
       <c r="M32">
         <v>1502</v>
       </c>
-    </row>
-    <row r="33" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N32" t="str">
+        <f t="shared" si="1"/>
+        <v>000005DE</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000005DE</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Gb2 31</v>
+      </c>
+    </row>
+    <row r="33" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G33">
         <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="3"/>
+        <v>G2</v>
       </c>
       <c r="J33">
         <v>32</v>
@@ -1354,13 +1874,29 @@
       <c r="M33">
         <v>1417</v>
       </c>
-    </row>
-    <row r="34" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N33" t="str">
+        <f t="shared" si="1"/>
+        <v>00000589</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000589</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="0"/>
+        <v>#define G2 32</v>
+      </c>
+    </row>
+    <row r="34" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G34">
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="3"/>
+        <v>Ab2</v>
       </c>
       <c r="J34">
         <v>33</v>
@@ -1374,13 +1910,29 @@
       <c r="M34">
         <v>1338</v>
       </c>
-    </row>
-    <row r="35" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N34" t="str">
+        <f t="shared" si="1"/>
+        <v>0000053A</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="2"/>
+        <v>0x0000053A</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Ab2 33</v>
+      </c>
+    </row>
+    <row r="35" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G35">
         <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="3"/>
+        <v>A2</v>
       </c>
       <c r="J35">
         <v>34</v>
@@ -1394,13 +1946,29 @@
       <c r="M35">
         <v>1263</v>
       </c>
-    </row>
-    <row r="36" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N35" t="str">
+        <f t="shared" si="1"/>
+        <v>000004EF</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000004EF</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="0"/>
+        <v>#define A2 34</v>
+      </c>
+    </row>
+    <row r="36" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G36">
         <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="3"/>
+        <v>Bb2</v>
       </c>
       <c r="J36">
         <v>35</v>
@@ -1414,13 +1982,29 @@
       <c r="M36">
         <v>1192</v>
       </c>
-    </row>
-    <row r="37" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N36" t="str">
+        <f t="shared" si="1"/>
+        <v>000004A8</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000004A8</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Bb2 35</v>
+      </c>
+    </row>
+    <row r="37" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G37">
         <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="3"/>
+        <v>B2</v>
       </c>
       <c r="J37">
         <v>36</v>
@@ -1434,14 +2018,30 @@
       <c r="M37">
         <v>1125</v>
       </c>
-    </row>
-    <row r="38" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N37" t="str">
+        <f t="shared" si="1"/>
+        <v>00000465</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000465</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="0"/>
+        <v>#define B2 36</v>
+      </c>
+    </row>
+    <row r="38" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G38">
         <v>3</v>
       </c>
       <c r="H38" t="s">
         <v>14</v>
       </c>
+      <c r="I38" t="str">
+        <f t="shared" si="3"/>
+        <v>C3</v>
+      </c>
       <c r="J38">
         <v>37</v>
       </c>
@@ -1454,13 +2054,29 @@
       <c r="M38">
         <v>1062</v>
       </c>
-    </row>
-    <row r="39" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N38" t="str">
+        <f t="shared" si="1"/>
+        <v>00000426</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000426</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="0"/>
+        <v>#define C3 37</v>
+      </c>
+    </row>
+    <row r="39" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G39">
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="3"/>
+        <v>Db3</v>
       </c>
       <c r="J39">
         <v>38</v>
@@ -1474,14 +2090,30 @@
       <c r="M39">
         <v>1002</v>
       </c>
-    </row>
-    <row r="40" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N39" t="str">
+        <f t="shared" si="1"/>
+        <v>000003EA</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000003EA</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Db3 38</v>
+      </c>
+    </row>
+    <row r="40" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G40">
         <v>3</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
       </c>
+      <c r="I40" t="str">
+        <f t="shared" si="3"/>
+        <v>D3</v>
+      </c>
       <c r="J40">
         <v>39</v>
       </c>
@@ -1494,13 +2126,29 @@
       <c r="M40">
         <v>946</v>
       </c>
-    </row>
-    <row r="41" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N40" t="str">
+        <f t="shared" si="1"/>
+        <v>000003B2</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000003B2</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="0"/>
+        <v>#define D3 39</v>
+      </c>
+    </row>
+    <row r="41" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G41">
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="3"/>
+        <v>Eb3</v>
       </c>
       <c r="J41">
         <v>40</v>
@@ -1514,13 +2162,29 @@
       <c r="M41">
         <v>893</v>
       </c>
-    </row>
-    <row r="42" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N41" t="str">
+        <f t="shared" si="1"/>
+        <v>0000037D</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="2"/>
+        <v>0x0000037D</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Eb3 40</v>
+      </c>
+    </row>
+    <row r="42" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G42">
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="3"/>
+        <v>E3</v>
       </c>
       <c r="J42">
         <v>41</v>
@@ -1534,13 +2198,29 @@
       <c r="M42">
         <v>843</v>
       </c>
-    </row>
-    <row r="43" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N42" t="str">
+        <f t="shared" si="1"/>
+        <v>0000034B</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="2"/>
+        <v>0x0000034B</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="0"/>
+        <v>#define E3 41</v>
+      </c>
+    </row>
+    <row r="43" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G43">
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="3"/>
+        <v>F3</v>
       </c>
       <c r="J43">
         <v>42</v>
@@ -1554,13 +2234,29 @@
       <c r="M43">
         <v>795</v>
       </c>
-    </row>
-    <row r="44" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N43" t="str">
+        <f t="shared" si="1"/>
+        <v>0000031B</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="2"/>
+        <v>0x0000031B</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="0"/>
+        <v>#define F3 42</v>
+      </c>
+    </row>
+    <row r="44" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G44">
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="3"/>
+        <v>Gb3</v>
       </c>
       <c r="J44">
         <v>43</v>
@@ -1574,13 +2270,29 @@
       <c r="M44">
         <v>751</v>
       </c>
-    </row>
-    <row r="45" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N44" t="str">
+        <f t="shared" si="1"/>
+        <v>000002EF</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000002EF</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Gb3 43</v>
+      </c>
+    </row>
+    <row r="45" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G45">
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="3"/>
+        <v>G3</v>
       </c>
       <c r="J45">
         <v>44</v>
@@ -1594,13 +2306,29 @@
       <c r="M45">
         <v>709</v>
       </c>
-    </row>
-    <row r="46" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N45" t="str">
+        <f t="shared" si="1"/>
+        <v>000002C5</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000002C5</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="0"/>
+        <v>#define G3 44</v>
+      </c>
+    </row>
+    <row r="46" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G46">
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="3"/>
+        <v>Ab3</v>
       </c>
       <c r="J46">
         <v>45</v>
@@ -1614,13 +2342,29 @@
       <c r="M46">
         <v>669</v>
       </c>
-    </row>
-    <row r="47" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N46" t="str">
+        <f t="shared" si="1"/>
+        <v>0000029D</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="2"/>
+        <v>0x0000029D</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Ab3 45</v>
+      </c>
+    </row>
+    <row r="47" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G47">
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="3"/>
+        <v>A3</v>
       </c>
       <c r="J47">
         <v>46</v>
@@ -1634,13 +2378,29 @@
       <c r="M47">
         <v>631</v>
       </c>
-    </row>
-    <row r="48" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N47" t="str">
+        <f t="shared" si="1"/>
+        <v>00000277</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000277</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="0"/>
+        <v>#define A3 46</v>
+      </c>
+    </row>
+    <row r="48" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G48">
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="3"/>
+        <v>Bb3</v>
       </c>
       <c r="J48">
         <v>47</v>
@@ -1654,13 +2414,29 @@
       <c r="M48">
         <v>596</v>
       </c>
-    </row>
-    <row r="49" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N48" t="str">
+        <f t="shared" si="1"/>
+        <v>00000254</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000254</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Bb3 47</v>
+      </c>
+    </row>
+    <row r="49" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G49">
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="3"/>
+        <v>B3</v>
       </c>
       <c r="J49">
         <v>48</v>
@@ -1674,14 +2450,30 @@
       <c r="M49">
         <v>563</v>
       </c>
-    </row>
-    <row r="50" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N49" t="str">
+        <f t="shared" si="1"/>
+        <v>00000233</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000233</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="0"/>
+        <v>#define B3 48</v>
+      </c>
+    </row>
+    <row r="50" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G50">
         <v>4</v>
       </c>
       <c r="H50" t="s">
         <v>14</v>
       </c>
+      <c r="I50" t="str">
+        <f t="shared" si="3"/>
+        <v>C4</v>
+      </c>
       <c r="J50">
         <v>49</v>
       </c>
@@ -1694,13 +2486,29 @@
       <c r="M50">
         <v>531</v>
       </c>
-    </row>
-    <row r="51" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N50" t="str">
+        <f t="shared" si="1"/>
+        <v>00000213</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000213</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="0"/>
+        <v>#define C4 49</v>
+      </c>
+    </row>
+    <row r="51" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G51">
         <v>4</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="3"/>
+        <v>Db4</v>
       </c>
       <c r="J51">
         <v>50</v>
@@ -1714,14 +2522,30 @@
       <c r="M51">
         <v>501</v>
       </c>
-    </row>
-    <row r="52" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N51" t="str">
+        <f t="shared" si="1"/>
+        <v>000001F5</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000001F5</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Db4 50</v>
+      </c>
+    </row>
+    <row r="52" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G52">
         <v>4</v>
       </c>
       <c r="H52" t="s">
         <v>13</v>
       </c>
+      <c r="I52" t="str">
+        <f t="shared" si="3"/>
+        <v>D4</v>
+      </c>
       <c r="J52">
         <v>51</v>
       </c>
@@ -1734,13 +2558,29 @@
       <c r="M52">
         <v>473</v>
       </c>
-    </row>
-    <row r="53" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N52" t="str">
+        <f t="shared" si="1"/>
+        <v>000001D9</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000001D9</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="0"/>
+        <v>#define D4 51</v>
+      </c>
+    </row>
+    <row r="53" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G53">
         <v>4</v>
       </c>
       <c r="H53" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="3"/>
+        <v>Eb4</v>
       </c>
       <c r="J53">
         <v>52</v>
@@ -1754,13 +2594,29 @@
       <c r="M53">
         <v>446</v>
       </c>
-    </row>
-    <row r="54" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N53" t="str">
+        <f t="shared" si="1"/>
+        <v>000001BE</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000001BE</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Eb4 52</v>
+      </c>
+    </row>
+    <row r="54" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G54">
         <v>4</v>
       </c>
       <c r="H54" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="3"/>
+        <v>E4</v>
       </c>
       <c r="J54">
         <v>53</v>
@@ -1774,13 +2630,29 @@
       <c r="M54">
         <v>421</v>
       </c>
-    </row>
-    <row r="55" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N54" t="str">
+        <f t="shared" si="1"/>
+        <v>000001A5</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000001A5</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="0"/>
+        <v>#define E4 53</v>
+      </c>
+    </row>
+    <row r="55" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G55">
         <v>4</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="3"/>
+        <v>F4</v>
       </c>
       <c r="J55">
         <v>54</v>
@@ -1794,13 +2666,29 @@
       <c r="M55">
         <v>398</v>
       </c>
-    </row>
-    <row r="56" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N55" t="str">
+        <f t="shared" si="1"/>
+        <v>0000018E</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="2"/>
+        <v>0x0000018E</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="0"/>
+        <v>#define F4 54</v>
+      </c>
+    </row>
+    <row r="56" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G56">
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="3"/>
+        <v>Gb4</v>
       </c>
       <c r="J56">
         <v>55</v>
@@ -1814,13 +2702,29 @@
       <c r="M56">
         <v>375</v>
       </c>
-    </row>
-    <row r="57" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N56" t="str">
+        <f t="shared" si="1"/>
+        <v>00000177</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000177</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Gb4 55</v>
+      </c>
+    </row>
+    <row r="57" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G57">
         <v>4</v>
       </c>
       <c r="H57" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="3"/>
+        <v>G4</v>
       </c>
       <c r="J57">
         <v>56</v>
@@ -1834,13 +2738,29 @@
       <c r="M57">
         <v>354</v>
       </c>
-    </row>
-    <row r="58" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N57" t="str">
+        <f t="shared" si="1"/>
+        <v>00000162</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000162</v>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" si="0"/>
+        <v>#define G4 56</v>
+      </c>
+    </row>
+    <row r="58" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G58">
         <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="3"/>
+        <v>Ab4</v>
       </c>
       <c r="J58">
         <v>57</v>
@@ -1854,13 +2774,29 @@
       <c r="M58">
         <v>334</v>
       </c>
-    </row>
-    <row r="59" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N58" t="str">
+        <f t="shared" si="1"/>
+        <v>0000014E</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="2"/>
+        <v>0x0000014E</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Ab4 57</v>
+      </c>
+    </row>
+    <row r="59" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G59">
         <v>4</v>
       </c>
       <c r="H59" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="3"/>
+        <v>A4</v>
       </c>
       <c r="J59">
         <v>58</v>
@@ -1874,13 +2810,29 @@
       <c r="M59">
         <v>316</v>
       </c>
-    </row>
-    <row r="60" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N59" t="str">
+        <f t="shared" si="1"/>
+        <v>0000013C</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="2"/>
+        <v>0x0000013C</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="0"/>
+        <v>#define A4 58</v>
+      </c>
+    </row>
+    <row r="60" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G60">
         <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="3"/>
+        <v>Bb4</v>
       </c>
       <c r="J60">
         <v>59</v>
@@ -1894,13 +2846,29 @@
       <c r="M60">
         <v>298</v>
       </c>
-    </row>
-    <row r="61" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N60" t="str">
+        <f t="shared" si="1"/>
+        <v>0000012A</v>
+      </c>
+      <c r="O60" t="str">
+        <f t="shared" si="2"/>
+        <v>0x0000012A</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Bb4 59</v>
+      </c>
+    </row>
+    <row r="61" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G61">
         <v>4</v>
       </c>
       <c r="H61" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="3"/>
+        <v>B4</v>
       </c>
       <c r="J61">
         <v>60</v>
@@ -1914,14 +2882,30 @@
       <c r="M61">
         <v>281</v>
       </c>
-    </row>
-    <row r="62" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N61" t="str">
+        <f t="shared" si="1"/>
+        <v>00000119</v>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000119</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" si="0"/>
+        <v>#define B4 60</v>
+      </c>
+    </row>
+    <row r="62" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G62">
         <v>5</v>
       </c>
       <c r="H62" t="s">
         <v>14</v>
       </c>
+      <c r="I62" t="str">
+        <f t="shared" si="3"/>
+        <v>C5</v>
+      </c>
       <c r="J62">
         <v>61</v>
       </c>
@@ -1934,13 +2918,29 @@
       <c r="M62">
         <v>265</v>
       </c>
-    </row>
-    <row r="63" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N62" t="str">
+        <f t="shared" si="1"/>
+        <v>00000109</v>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="2"/>
+        <v>0x00000109</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" si="0"/>
+        <v>#define C5 61</v>
+      </c>
+    </row>
+    <row r="63" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G63">
         <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="3"/>
+        <v>Db5</v>
       </c>
       <c r="J63">
         <v>62</v>
@@ -1954,14 +2954,30 @@
       <c r="M63">
         <v>251</v>
       </c>
-    </row>
-    <row r="64" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N63" t="str">
+        <f t="shared" si="1"/>
+        <v>000000FB</v>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000000FB</v>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Db5 62</v>
+      </c>
+    </row>
+    <row r="64" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G64">
         <v>5</v>
       </c>
       <c r="H64" t="s">
         <v>13</v>
       </c>
+      <c r="I64" t="str">
+        <f t="shared" si="3"/>
+        <v>D5</v>
+      </c>
       <c r="J64">
         <v>63</v>
       </c>
@@ -1974,13 +2990,29 @@
       <c r="M64">
         <v>236</v>
       </c>
-    </row>
-    <row r="65" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N64" t="str">
+        <f t="shared" si="1"/>
+        <v>000000EC</v>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000000EC</v>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" si="0"/>
+        <v>#define D5 63</v>
+      </c>
+    </row>
+    <row r="65" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G65">
         <v>5</v>
       </c>
       <c r="H65" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="3"/>
+        <v>Eb5</v>
       </c>
       <c r="J65">
         <v>64</v>
@@ -1994,13 +3026,29 @@
       <c r="M65">
         <v>223</v>
       </c>
-    </row>
-    <row r="66" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N65" t="str">
+        <f t="shared" si="1"/>
+        <v>000000DF</v>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000000DF</v>
+      </c>
+      <c r="Q65" t="str">
+        <f t="shared" si="0"/>
+        <v>#define Eb5 64</v>
+      </c>
+    </row>
+    <row r="66" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G66">
         <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="3"/>
+        <v>E5</v>
       </c>
       <c r="J66">
         <v>65</v>
@@ -2014,13 +3062,29 @@
       <c r="M66">
         <v>211</v>
       </c>
-    </row>
-    <row r="67" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N66" t="str">
+        <f t="shared" si="1"/>
+        <v>000000D3</v>
+      </c>
+      <c r="O66" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000000D3</v>
+      </c>
+      <c r="Q66" t="str">
+        <f t="shared" si="0"/>
+        <v>#define E5 65</v>
+      </c>
+    </row>
+    <row r="67" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G67">
         <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="3"/>
+        <v>F5</v>
       </c>
       <c r="J67">
         <v>66</v>
@@ -2034,13 +3098,29 @@
       <c r="M67">
         <v>199</v>
       </c>
-    </row>
-    <row r="68" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N67" t="str">
+        <f t="shared" si="1"/>
+        <v>000000C7</v>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" si="2"/>
+        <v>0x000000C7</v>
+      </c>
+      <c r="Q67" t="str">
+        <f t="shared" ref="Q67:Q121" si="4">_xlfn.CONCAT("#define ", I67, " ", J67)</f>
+        <v>#define F5 66</v>
+      </c>
+    </row>
+    <row r="68" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G68">
         <v>5</v>
       </c>
       <c r="H68" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="3"/>
+        <v>Gb5</v>
       </c>
       <c r="J68">
         <v>67</v>
@@ -2054,13 +3134,29 @@
       <c r="M68">
         <v>188</v>
       </c>
-    </row>
-    <row r="69" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N68" t="str">
+        <f t="shared" ref="N68:N121" si="5">DEC2HEX(M68, 8)</f>
+        <v>000000BC</v>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" ref="O68:O121" si="6">_xlfn.CONCAT("0x", N68)</f>
+        <v>0x000000BC</v>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Gb5 67</v>
+      </c>
+    </row>
+    <row r="69" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G69">
         <v>5</v>
       </c>
       <c r="H69" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" ref="I69:I121" si="7">_xlfn.CONCAT(H69,G69)</f>
+        <v>G5</v>
       </c>
       <c r="J69">
         <v>68</v>
@@ -2074,13 +3170,29 @@
       <c r="M69">
         <v>177</v>
       </c>
-    </row>
-    <row r="70" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N69" t="str">
+        <f t="shared" si="5"/>
+        <v>000000B1</v>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="6"/>
+        <v>0x000000B1</v>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" si="4"/>
+        <v>#define G5 68</v>
+      </c>
+    </row>
+    <row r="70" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G70">
         <v>5</v>
       </c>
       <c r="H70" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="7"/>
+        <v>Ab5</v>
       </c>
       <c r="J70">
         <v>69</v>
@@ -2094,13 +3206,29 @@
       <c r="M70">
         <v>167</v>
       </c>
-    </row>
-    <row r="71" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N70" t="str">
+        <f t="shared" si="5"/>
+        <v>000000A7</v>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" si="6"/>
+        <v>0x000000A7</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Ab5 69</v>
+      </c>
+    </row>
+    <row r="71" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G71">
         <v>5</v>
       </c>
       <c r="H71" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="7"/>
+        <v>A5</v>
       </c>
       <c r="J71">
         <v>70</v>
@@ -2114,13 +3242,29 @@
       <c r="M71">
         <v>158</v>
       </c>
-    </row>
-    <row r="72" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N71" t="str">
+        <f t="shared" si="5"/>
+        <v>0000009E</v>
+      </c>
+      <c r="O71" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000009E</v>
+      </c>
+      <c r="Q71" t="str">
+        <f t="shared" si="4"/>
+        <v>#define A5 70</v>
+      </c>
+    </row>
+    <row r="72" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G72">
         <v>5</v>
       </c>
       <c r="H72" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="7"/>
+        <v>Bb5</v>
       </c>
       <c r="J72">
         <v>71</v>
@@ -2134,13 +3278,29 @@
       <c r="M72">
         <v>149</v>
       </c>
-    </row>
-    <row r="73" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N72" t="str">
+        <f t="shared" si="5"/>
+        <v>00000095</v>
+      </c>
+      <c r="O72" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000095</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Bb5 71</v>
+      </c>
+    </row>
+    <row r="73" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G73">
         <v>5</v>
       </c>
       <c r="H73" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="7"/>
+        <v>B5</v>
       </c>
       <c r="J73">
         <v>72</v>
@@ -2154,14 +3314,30 @@
       <c r="M73">
         <v>141</v>
       </c>
-    </row>
-    <row r="74" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N73" t="str">
+        <f t="shared" si="5"/>
+        <v>0000008D</v>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000008D</v>
+      </c>
+      <c r="Q73" t="str">
+        <f t="shared" si="4"/>
+        <v>#define B5 72</v>
+      </c>
+    </row>
+    <row r="74" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G74">
         <v>6</v>
       </c>
       <c r="H74" t="s">
         <v>14</v>
       </c>
+      <c r="I74" t="str">
+        <f t="shared" si="7"/>
+        <v>C6</v>
+      </c>
       <c r="J74">
         <v>73</v>
       </c>
@@ -2174,13 +3350,29 @@
       <c r="M74">
         <v>133</v>
       </c>
-    </row>
-    <row r="75" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N74" t="str">
+        <f t="shared" si="5"/>
+        <v>00000085</v>
+      </c>
+      <c r="O74" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000085</v>
+      </c>
+      <c r="Q74" t="str">
+        <f t="shared" si="4"/>
+        <v>#define C6 73</v>
+      </c>
+    </row>
+    <row r="75" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G75">
         <v>6</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="7"/>
+        <v>Db6</v>
       </c>
       <c r="J75">
         <v>74</v>
@@ -2194,14 +3386,30 @@
       <c r="M75">
         <v>125</v>
       </c>
-    </row>
-    <row r="76" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N75" t="str">
+        <f t="shared" si="5"/>
+        <v>0000007D</v>
+      </c>
+      <c r="O75" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000007D</v>
+      </c>
+      <c r="Q75" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Db6 74</v>
+      </c>
+    </row>
+    <row r="76" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G76">
         <v>6</v>
       </c>
       <c r="H76" t="s">
         <v>13</v>
       </c>
+      <c r="I76" t="str">
+        <f t="shared" si="7"/>
+        <v>D6</v>
+      </c>
       <c r="J76">
         <v>75</v>
       </c>
@@ -2214,13 +3422,29 @@
       <c r="M76">
         <v>118</v>
       </c>
-    </row>
-    <row r="77" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N76" t="str">
+        <f t="shared" si="5"/>
+        <v>00000076</v>
+      </c>
+      <c r="O76" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000076</v>
+      </c>
+      <c r="Q76" t="str">
+        <f t="shared" si="4"/>
+        <v>#define D6 75</v>
+      </c>
+    </row>
+    <row r="77" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G77">
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="7"/>
+        <v>Eb6</v>
       </c>
       <c r="J77">
         <v>76</v>
@@ -2234,13 +3458,29 @@
       <c r="M77">
         <v>112</v>
       </c>
-    </row>
-    <row r="78" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N77" t="str">
+        <f t="shared" si="5"/>
+        <v>00000070</v>
+      </c>
+      <c r="O77" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000070</v>
+      </c>
+      <c r="Q77" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Eb6 76</v>
+      </c>
+    </row>
+    <row r="78" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G78">
         <v>6</v>
       </c>
       <c r="H78" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="7"/>
+        <v>E6</v>
       </c>
       <c r="J78">
         <v>77</v>
@@ -2254,13 +3494,29 @@
       <c r="M78">
         <v>105</v>
       </c>
-    </row>
-    <row r="79" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N78" t="str">
+        <f t="shared" si="5"/>
+        <v>00000069</v>
+      </c>
+      <c r="O78" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000069</v>
+      </c>
+      <c r="Q78" t="str">
+        <f t="shared" si="4"/>
+        <v>#define E6 77</v>
+      </c>
+    </row>
+    <row r="79" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G79">
         <v>6</v>
       </c>
       <c r="H79" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="7"/>
+        <v>F6</v>
       </c>
       <c r="J79">
         <v>78</v>
@@ -2274,13 +3530,29 @@
       <c r="M79">
         <v>99</v>
       </c>
-    </row>
-    <row r="80" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N79" t="str">
+        <f t="shared" si="5"/>
+        <v>00000063</v>
+      </c>
+      <c r="O79" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000063</v>
+      </c>
+      <c r="Q79" t="str">
+        <f t="shared" si="4"/>
+        <v>#define F6 78</v>
+      </c>
+    </row>
+    <row r="80" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G80">
         <v>6</v>
       </c>
       <c r="H80" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="7"/>
+        <v>Gb6</v>
       </c>
       <c r="J80">
         <v>79</v>
@@ -2294,13 +3566,29 @@
       <c r="M80">
         <v>94</v>
       </c>
-    </row>
-    <row r="81" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N80" t="str">
+        <f t="shared" si="5"/>
+        <v>0000005E</v>
+      </c>
+      <c r="O80" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000005E</v>
+      </c>
+      <c r="Q80" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Gb6 79</v>
+      </c>
+    </row>
+    <row r="81" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G81">
         <v>6</v>
       </c>
       <c r="H81" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="7"/>
+        <v>G6</v>
       </c>
       <c r="J81">
         <v>80</v>
@@ -2314,13 +3602,29 @@
       <c r="M81">
         <v>89</v>
       </c>
-    </row>
-    <row r="82" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N81" t="str">
+        <f t="shared" si="5"/>
+        <v>00000059</v>
+      </c>
+      <c r="O81" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000059</v>
+      </c>
+      <c r="Q81" t="str">
+        <f t="shared" si="4"/>
+        <v>#define G6 80</v>
+      </c>
+    </row>
+    <row r="82" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G82">
         <v>6</v>
       </c>
       <c r="H82" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="7"/>
+        <v>Ab6</v>
       </c>
       <c r="J82">
         <v>81</v>
@@ -2334,13 +3638,29 @@
       <c r="M82">
         <v>84</v>
       </c>
-    </row>
-    <row r="83" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N82" t="str">
+        <f t="shared" si="5"/>
+        <v>00000054</v>
+      </c>
+      <c r="O82" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000054</v>
+      </c>
+      <c r="Q82" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Ab6 81</v>
+      </c>
+    </row>
+    <row r="83" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G83">
         <v>6</v>
       </c>
       <c r="H83" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="7"/>
+        <v>A6</v>
       </c>
       <c r="J83">
         <v>82</v>
@@ -2354,13 +3674,29 @@
       <c r="M83">
         <v>79</v>
       </c>
-    </row>
-    <row r="84" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N83" t="str">
+        <f t="shared" si="5"/>
+        <v>0000004F</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000004F</v>
+      </c>
+      <c r="Q83" t="str">
+        <f t="shared" si="4"/>
+        <v>#define A6 82</v>
+      </c>
+    </row>
+    <row r="84" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G84">
         <v>6</v>
       </c>
       <c r="H84" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="7"/>
+        <v>Bb6</v>
       </c>
       <c r="J84">
         <v>83</v>
@@ -2374,13 +3710,29 @@
       <c r="M84">
         <v>74</v>
       </c>
-    </row>
-    <row r="85" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N84" t="str">
+        <f t="shared" si="5"/>
+        <v>0000004A</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000004A</v>
+      </c>
+      <c r="Q84" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Bb6 83</v>
+      </c>
+    </row>
+    <row r="85" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G85">
         <v>6</v>
       </c>
       <c r="H85" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="7"/>
+        <v>B6</v>
       </c>
       <c r="J85">
         <v>84</v>
@@ -2394,14 +3746,30 @@
       <c r="M85">
         <v>70</v>
       </c>
-    </row>
-    <row r="86" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N85" t="str">
+        <f t="shared" si="5"/>
+        <v>00000046</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000046</v>
+      </c>
+      <c r="Q85" t="str">
+        <f t="shared" si="4"/>
+        <v>#define B6 84</v>
+      </c>
+    </row>
+    <row r="86" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G86">
         <v>7</v>
       </c>
       <c r="H86" t="s">
         <v>14</v>
       </c>
+      <c r="I86" t="str">
+        <f t="shared" si="7"/>
+        <v>C7</v>
+      </c>
       <c r="J86">
         <v>85</v>
       </c>
@@ -2414,13 +3782,29 @@
       <c r="M86">
         <v>66</v>
       </c>
-    </row>
-    <row r="87" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N86" t="str">
+        <f t="shared" si="5"/>
+        <v>00000042</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000042</v>
+      </c>
+      <c r="Q86" t="str">
+        <f t="shared" si="4"/>
+        <v>#define C7 85</v>
+      </c>
+    </row>
+    <row r="87" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G87">
         <v>7</v>
       </c>
       <c r="H87" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="7"/>
+        <v>Db7</v>
       </c>
       <c r="J87">
         <v>86</v>
@@ -2434,14 +3818,30 @@
       <c r="M87">
         <v>63</v>
       </c>
-    </row>
-    <row r="88" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N87" t="str">
+        <f t="shared" si="5"/>
+        <v>0000003F</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000003F</v>
+      </c>
+      <c r="Q87" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Db7 86</v>
+      </c>
+    </row>
+    <row r="88" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G88">
         <v>7</v>
       </c>
       <c r="H88" t="s">
         <v>13</v>
       </c>
+      <c r="I88" t="str">
+        <f t="shared" si="7"/>
+        <v>D7</v>
+      </c>
       <c r="J88">
         <v>87</v>
       </c>
@@ -2454,13 +3854,29 @@
       <c r="M88">
         <v>59</v>
       </c>
-    </row>
-    <row r="89" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N88" t="str">
+        <f t="shared" si="5"/>
+        <v>0000003B</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000003B</v>
+      </c>
+      <c r="Q88" t="str">
+        <f t="shared" si="4"/>
+        <v>#define D7 87</v>
+      </c>
+    </row>
+    <row r="89" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G89">
         <v>7</v>
       </c>
       <c r="H89" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="7"/>
+        <v>Eb7</v>
       </c>
       <c r="J89">
         <v>88</v>
@@ -2474,13 +3890,29 @@
       <c r="M89">
         <v>56</v>
       </c>
-    </row>
-    <row r="90" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N89" t="str">
+        <f t="shared" si="5"/>
+        <v>00000038</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000038</v>
+      </c>
+      <c r="Q89" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Eb7 88</v>
+      </c>
+    </row>
+    <row r="90" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G90">
         <v>7</v>
       </c>
       <c r="H90" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="7"/>
+        <v>E7</v>
       </c>
       <c r="J90">
         <v>89</v>
@@ -2494,13 +3926,29 @@
       <c r="M90">
         <v>53</v>
       </c>
-    </row>
-    <row r="91" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N90" t="str">
+        <f t="shared" si="5"/>
+        <v>00000035</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000035</v>
+      </c>
+      <c r="Q90" t="str">
+        <f t="shared" si="4"/>
+        <v>#define E7 89</v>
+      </c>
+    </row>
+    <row r="91" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G91">
         <v>7</v>
       </c>
       <c r="H91" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="7"/>
+        <v>F7</v>
       </c>
       <c r="J91">
         <v>90</v>
@@ -2514,13 +3962,29 @@
       <c r="M91">
         <v>50</v>
       </c>
-    </row>
-    <row r="92" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N91" t="str">
+        <f t="shared" si="5"/>
+        <v>00000032</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000032</v>
+      </c>
+      <c r="Q91" t="str">
+        <f t="shared" si="4"/>
+        <v>#define F7 90</v>
+      </c>
+    </row>
+    <row r="92" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G92">
         <v>7</v>
       </c>
       <c r="H92" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="7"/>
+        <v>Gb7</v>
       </c>
       <c r="J92">
         <v>91</v>
@@ -2534,13 +3998,29 @@
       <c r="M92">
         <v>47</v>
       </c>
-    </row>
-    <row r="93" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N92" t="str">
+        <f t="shared" si="5"/>
+        <v>0000002F</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000002F</v>
+      </c>
+      <c r="Q92" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Gb7 91</v>
+      </c>
+    </row>
+    <row r="93" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G93">
         <v>7</v>
       </c>
       <c r="H93" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="7"/>
+        <v>G7</v>
       </c>
       <c r="J93">
         <v>92</v>
@@ -2554,13 +4034,29 @@
       <c r="M93">
         <v>44</v>
       </c>
-    </row>
-    <row r="94" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N93" t="str">
+        <f t="shared" si="5"/>
+        <v>0000002C</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000002C</v>
+      </c>
+      <c r="Q93" t="str">
+        <f t="shared" si="4"/>
+        <v>#define G7 92</v>
+      </c>
+    </row>
+    <row r="94" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G94">
         <v>7</v>
       </c>
       <c r="H94" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="7"/>
+        <v>Ab7</v>
       </c>
       <c r="J94">
         <v>93</v>
@@ -2574,13 +4070,29 @@
       <c r="M94">
         <v>42</v>
       </c>
-    </row>
-    <row r="95" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N94" t="str">
+        <f t="shared" si="5"/>
+        <v>0000002A</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000002A</v>
+      </c>
+      <c r="Q94" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Ab7 93</v>
+      </c>
+    </row>
+    <row r="95" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G95">
         <v>7</v>
       </c>
       <c r="H95" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="7"/>
+        <v>A7</v>
       </c>
       <c r="J95">
         <v>94</v>
@@ -2594,13 +4106,29 @@
       <c r="M95">
         <v>39</v>
       </c>
-    </row>
-    <row r="96" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N95" t="str">
+        <f t="shared" si="5"/>
+        <v>00000027</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000027</v>
+      </c>
+      <c r="Q95" t="str">
+        <f t="shared" si="4"/>
+        <v>#define A7 94</v>
+      </c>
+    </row>
+    <row r="96" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G96">
         <v>7</v>
       </c>
       <c r="H96" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="7"/>
+        <v>Bb7</v>
       </c>
       <c r="J96">
         <v>95</v>
@@ -2614,13 +4142,29 @@
       <c r="M96">
         <v>37</v>
       </c>
-    </row>
-    <row r="97" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N96" t="str">
+        <f t="shared" si="5"/>
+        <v>00000025</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000025</v>
+      </c>
+      <c r="Q96" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Bb7 95</v>
+      </c>
+    </row>
+    <row r="97" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G97">
         <v>7</v>
       </c>
       <c r="H97" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="7"/>
+        <v>B7</v>
       </c>
       <c r="J97">
         <v>96</v>
@@ -2634,14 +4178,30 @@
       <c r="M97">
         <v>35</v>
       </c>
-    </row>
-    <row r="98" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N97" t="str">
+        <f t="shared" si="5"/>
+        <v>00000023</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000023</v>
+      </c>
+      <c r="Q97" t="str">
+        <f t="shared" si="4"/>
+        <v>#define B7 96</v>
+      </c>
+    </row>
+    <row r="98" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G98">
         <v>8</v>
       </c>
       <c r="H98" t="s">
         <v>14</v>
       </c>
+      <c r="I98" t="str">
+        <f t="shared" si="7"/>
+        <v>C8</v>
+      </c>
       <c r="J98">
         <v>97</v>
       </c>
@@ -2654,13 +4214,29 @@
       <c r="M98">
         <v>33</v>
       </c>
-    </row>
-    <row r="99" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N98" t="str">
+        <f t="shared" si="5"/>
+        <v>00000021</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000021</v>
+      </c>
+      <c r="Q98" t="str">
+        <f t="shared" si="4"/>
+        <v>#define C8 97</v>
+      </c>
+    </row>
+    <row r="99" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G99">
         <v>8</v>
       </c>
       <c r="H99" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="7"/>
+        <v>Db8</v>
       </c>
       <c r="J99">
         <v>98</v>
@@ -2674,14 +4250,30 @@
       <c r="M99">
         <v>31</v>
       </c>
-    </row>
-    <row r="100" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N99" t="str">
+        <f t="shared" si="5"/>
+        <v>0000001F</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000001F</v>
+      </c>
+      <c r="Q99" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Db8 98</v>
+      </c>
+    </row>
+    <row r="100" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G100">
         <v>8</v>
       </c>
       <c r="H100" t="s">
         <v>13</v>
       </c>
+      <c r="I100" t="str">
+        <f t="shared" si="7"/>
+        <v>D8</v>
+      </c>
       <c r="J100">
         <v>99</v>
       </c>
@@ -2694,13 +4286,29 @@
       <c r="M100">
         <v>30</v>
       </c>
-    </row>
-    <row r="101" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N100" t="str">
+        <f t="shared" si="5"/>
+        <v>0000001E</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000001E</v>
+      </c>
+      <c r="Q100" t="str">
+        <f t="shared" si="4"/>
+        <v>#define D8 99</v>
+      </c>
+    </row>
+    <row r="101" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G101">
         <v>8</v>
       </c>
       <c r="H101" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="7"/>
+        <v>Eb8</v>
       </c>
       <c r="J101">
         <v>100</v>
@@ -2714,13 +4322,29 @@
       <c r="M101">
         <v>28</v>
       </c>
-    </row>
-    <row r="102" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N101" t="str">
+        <f t="shared" si="5"/>
+        <v>0000001C</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000001C</v>
+      </c>
+      <c r="Q101" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Eb8 100</v>
+      </c>
+    </row>
+    <row r="102" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G102">
         <v>8</v>
       </c>
       <c r="H102" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="7"/>
+        <v>E8</v>
       </c>
       <c r="J102">
         <v>101</v>
@@ -2734,13 +4358,29 @@
       <c r="M102">
         <v>26</v>
       </c>
-    </row>
-    <row r="103" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N102" t="str">
+        <f t="shared" si="5"/>
+        <v>0000001A</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000001A</v>
+      </c>
+      <c r="Q102" t="str">
+        <f t="shared" si="4"/>
+        <v>#define E8 101</v>
+      </c>
+    </row>
+    <row r="103" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G103">
         <v>8</v>
       </c>
       <c r="H103" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="7"/>
+        <v>F8</v>
       </c>
       <c r="J103">
         <v>102</v>
@@ -2754,13 +4394,29 @@
       <c r="M103">
         <v>25</v>
       </c>
-    </row>
-    <row r="104" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N103" t="str">
+        <f t="shared" si="5"/>
+        <v>00000019</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000019</v>
+      </c>
+      <c r="Q103" t="str">
+        <f t="shared" si="4"/>
+        <v>#define F8 102</v>
+      </c>
+    </row>
+    <row r="104" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G104">
         <v>8</v>
       </c>
       <c r="H104" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="7"/>
+        <v>Gb8</v>
       </c>
       <c r="J104">
         <v>103</v>
@@ -2774,13 +4430,29 @@
       <c r="M104">
         <v>23</v>
       </c>
-    </row>
-    <row r="105" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N104" t="str">
+        <f t="shared" si="5"/>
+        <v>00000017</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000017</v>
+      </c>
+      <c r="Q104" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Gb8 103</v>
+      </c>
+    </row>
+    <row r="105" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G105">
         <v>8</v>
       </c>
       <c r="H105" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="7"/>
+        <v>G8</v>
       </c>
       <c r="J105">
         <v>104</v>
@@ -2794,13 +4466,29 @@
       <c r="M105">
         <v>22</v>
       </c>
-    </row>
-    <row r="106" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N105" t="str">
+        <f t="shared" si="5"/>
+        <v>00000016</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000016</v>
+      </c>
+      <c r="Q105" t="str">
+        <f t="shared" si="4"/>
+        <v>#define G8 104</v>
+      </c>
+    </row>
+    <row r="106" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G106">
         <v>8</v>
       </c>
       <c r="H106" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="7"/>
+        <v>Ab8</v>
       </c>
       <c r="J106">
         <v>105</v>
@@ -2814,13 +4502,29 @@
       <c r="M106">
         <v>21</v>
       </c>
-    </row>
-    <row r="107" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N106" t="str">
+        <f t="shared" si="5"/>
+        <v>00000015</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000015</v>
+      </c>
+      <c r="Q106" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Ab8 105</v>
+      </c>
+    </row>
+    <row r="107" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G107">
         <v>8</v>
       </c>
       <c r="H107" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="7"/>
+        <v>A8</v>
       </c>
       <c r="J107">
         <v>106</v>
@@ -2834,13 +4538,29 @@
       <c r="M107">
         <v>20</v>
       </c>
-    </row>
-    <row r="108" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N107" t="str">
+        <f t="shared" si="5"/>
+        <v>00000014</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000014</v>
+      </c>
+      <c r="Q107" t="str">
+        <f t="shared" si="4"/>
+        <v>#define A8 106</v>
+      </c>
+    </row>
+    <row r="108" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G108">
         <v>8</v>
       </c>
       <c r="H108" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="I108" t="str">
+        <f t="shared" si="7"/>
+        <v>Bb8</v>
       </c>
       <c r="J108">
         <v>107</v>
@@ -2854,13 +4574,29 @@
       <c r="M108">
         <v>19</v>
       </c>
-    </row>
-    <row r="109" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N108" t="str">
+        <f t="shared" si="5"/>
+        <v>00000013</v>
+      </c>
+      <c r="O108" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000013</v>
+      </c>
+      <c r="Q108" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Bb8 107</v>
+      </c>
+    </row>
+    <row r="109" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G109">
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="I109" t="str">
+        <f t="shared" si="7"/>
+        <v>B8</v>
       </c>
       <c r="J109">
         <v>108</v>
@@ -2874,14 +4610,30 @@
       <c r="M109">
         <v>18</v>
       </c>
-    </row>
-    <row r="110" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N109" t="str">
+        <f t="shared" si="5"/>
+        <v>00000012</v>
+      </c>
+      <c r="O109" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000012</v>
+      </c>
+      <c r="Q109" t="str">
+        <f t="shared" si="4"/>
+        <v>#define B8 108</v>
+      </c>
+    </row>
+    <row r="110" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G110">
         <v>9</v>
       </c>
       <c r="H110" t="s">
         <v>14</v>
       </c>
+      <c r="I110" t="str">
+        <f t="shared" si="7"/>
+        <v>C9</v>
+      </c>
       <c r="J110">
         <v>109</v>
       </c>
@@ -2894,13 +4646,29 @@
       <c r="M110">
         <v>17</v>
       </c>
-    </row>
-    <row r="111" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N110" t="str">
+        <f t="shared" si="5"/>
+        <v>00000011</v>
+      </c>
+      <c r="O110" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000011</v>
+      </c>
+      <c r="Q110" t="str">
+        <f t="shared" si="4"/>
+        <v>#define C9 109</v>
+      </c>
+    </row>
+    <row r="111" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G111">
         <v>9</v>
       </c>
       <c r="H111" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="I111" t="str">
+        <f t="shared" si="7"/>
+        <v>Db9</v>
       </c>
       <c r="J111">
         <v>110</v>
@@ -2914,14 +4682,30 @@
       <c r="M111">
         <v>16</v>
       </c>
-    </row>
-    <row r="112" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N111" t="str">
+        <f t="shared" si="5"/>
+        <v>00000010</v>
+      </c>
+      <c r="O111" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000010</v>
+      </c>
+      <c r="Q111" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Db9 110</v>
+      </c>
+    </row>
+    <row r="112" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G112">
         <v>9</v>
       </c>
       <c r="H112" t="s">
         <v>13</v>
       </c>
+      <c r="I112" t="str">
+        <f t="shared" si="7"/>
+        <v>D9</v>
+      </c>
       <c r="J112">
         <v>111</v>
       </c>
@@ -2934,13 +4718,29 @@
       <c r="M112">
         <v>15</v>
       </c>
-    </row>
-    <row r="113" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N112" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000F</v>
+      </c>
+      <c r="O112" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000000F</v>
+      </c>
+      <c r="Q112" t="str">
+        <f t="shared" si="4"/>
+        <v>#define D9 111</v>
+      </c>
+    </row>
+    <row r="113" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G113">
         <v>9</v>
       </c>
       <c r="H113" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" si="7"/>
+        <v>Eb9</v>
       </c>
       <c r="J113">
         <v>112</v>
@@ -2954,13 +4754,29 @@
       <c r="M113">
         <v>14</v>
       </c>
-    </row>
-    <row r="114" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N113" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000E</v>
+      </c>
+      <c r="O113" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000000E</v>
+      </c>
+      <c r="Q113" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Eb9 112</v>
+      </c>
+    </row>
+    <row r="114" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G114">
         <v>9</v>
       </c>
       <c r="H114" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="I114" t="str">
+        <f t="shared" si="7"/>
+        <v>E9</v>
       </c>
       <c r="J114">
         <v>113</v>
@@ -2974,13 +4790,29 @@
       <c r="M114">
         <v>13</v>
       </c>
-    </row>
-    <row r="115" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N114" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000D</v>
+      </c>
+      <c r="O114" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000000D</v>
+      </c>
+      <c r="Q114" t="str">
+        <f t="shared" si="4"/>
+        <v>#define E9 113</v>
+      </c>
+    </row>
+    <row r="115" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G115">
         <v>9</v>
       </c>
       <c r="H115" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="I115" t="str">
+        <f t="shared" si="7"/>
+        <v>F9</v>
       </c>
       <c r="J115">
         <v>114</v>
@@ -2994,13 +4826,29 @@
       <c r="M115">
         <v>12</v>
       </c>
-    </row>
-    <row r="116" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N115" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000C</v>
+      </c>
+      <c r="O115" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000000C</v>
+      </c>
+      <c r="Q115" t="str">
+        <f t="shared" si="4"/>
+        <v>#define F9 114</v>
+      </c>
+    </row>
+    <row r="116" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G116">
         <v>9</v>
       </c>
       <c r="H116" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="I116" t="str">
+        <f t="shared" si="7"/>
+        <v>Gb9</v>
       </c>
       <c r="J116">
         <v>115</v>
@@ -3014,13 +4862,29 @@
       <c r="M116">
         <v>12</v>
       </c>
-    </row>
-    <row r="117" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N116" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000C</v>
+      </c>
+      <c r="O116" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000000C</v>
+      </c>
+      <c r="Q116" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Gb9 115</v>
+      </c>
+    </row>
+    <row r="117" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G117">
         <v>9</v>
       </c>
       <c r="H117" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="I117" t="str">
+        <f t="shared" si="7"/>
+        <v>G9</v>
       </c>
       <c r="J117">
         <v>116</v>
@@ -3034,13 +4898,29 @@
       <c r="M117">
         <v>11</v>
       </c>
-    </row>
-    <row r="118" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N117" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000B</v>
+      </c>
+      <c r="O117" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000000B</v>
+      </c>
+      <c r="Q117" t="str">
+        <f t="shared" si="4"/>
+        <v>#define G9 116</v>
+      </c>
+    </row>
+    <row r="118" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G118">
         <v>9</v>
       </c>
       <c r="H118" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I118" t="str">
+        <f t="shared" si="7"/>
+        <v>Ab9</v>
       </c>
       <c r="J118">
         <v>117</v>
@@ -3054,13 +4934,29 @@
       <c r="M118">
         <v>10</v>
       </c>
-    </row>
-    <row r="119" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N118" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000A</v>
+      </c>
+      <c r="O118" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000000A</v>
+      </c>
+      <c r="Q118" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Ab9 117</v>
+      </c>
+    </row>
+    <row r="119" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G119">
         <v>9</v>
       </c>
       <c r="H119" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="I119" t="str">
+        <f t="shared" si="7"/>
+        <v>A9</v>
       </c>
       <c r="J119">
         <v>118</v>
@@ -3074,13 +4970,29 @@
       <c r="M119">
         <v>10</v>
       </c>
-    </row>
-    <row r="120" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N119" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000A</v>
+      </c>
+      <c r="O119" t="str">
+        <f t="shared" si="6"/>
+        <v>0x0000000A</v>
+      </c>
+      <c r="Q119" t="str">
+        <f t="shared" si="4"/>
+        <v>#define A9 118</v>
+      </c>
+    </row>
+    <row r="120" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G120">
         <v>9</v>
       </c>
       <c r="H120" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="I120" t="str">
+        <f t="shared" si="7"/>
+        <v>Bb9</v>
       </c>
       <c r="J120">
         <v>119</v>
@@ -3094,13 +5006,29 @@
       <c r="M120">
         <v>9</v>
       </c>
-    </row>
-    <row r="121" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="N120" t="str">
+        <f t="shared" si="5"/>
+        <v>00000009</v>
+      </c>
+      <c r="O120" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000009</v>
+      </c>
+      <c r="Q120" t="str">
+        <f t="shared" si="4"/>
+        <v>#define Bb9 119</v>
+      </c>
+    </row>
+    <row r="121" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G121">
         <v>9</v>
       </c>
       <c r="H121" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="I121" t="str">
+        <f t="shared" si="7"/>
+        <v>B9</v>
       </c>
       <c r="J121">
         <v>120</v>
@@ -3113,6 +5041,18 @@
       </c>
       <c r="M121">
         <v>9</v>
+      </c>
+      <c r="N121" t="str">
+        <f t="shared" si="5"/>
+        <v>00000009</v>
+      </c>
+      <c r="O121" t="str">
+        <f t="shared" si="6"/>
+        <v>0x00000009</v>
+      </c>
+      <c r="Q121" t="str">
+        <f t="shared" si="4"/>
+        <v>#define B9 120</v>
       </c>
     </row>
   </sheetData>

--- a/freq_calcs.xlsx
+++ b/freq_calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\School\MANTY\BlackboardSynth_MANTIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A1A1BF-B570-4021-8827-E8E8B0688FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4788CD8-8E14-4F87-B0E6-69495BA00063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,8 +563,8 @@
         <v>0x0000212F</v>
       </c>
       <c r="Q2" t="str">
-        <f>_xlfn.CONCAT("#define ", I2, " ", J2)</f>
-        <v>#define C0 1</v>
+        <f>_xlfn.CONCAT("#define ", I2, " ", O2)</f>
+        <v>#define C0 0x0000212F</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -608,8 +608,8 @@
         <v>0x00001F53</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q66" si="0">_xlfn.CONCAT("#define ", I3, " ", J3)</f>
-        <v>#define Db0 2</v>
+        <f>_xlfn.CONCAT("#define ", I3, " ", O3)</f>
+        <v>#define Db0 0x00001F53</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -645,16 +645,16 @@
         <v>7569</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" ref="N4:N67" si="1">DEC2HEX(M4, 8)</f>
+        <f t="shared" ref="N4:N67" si="0">DEC2HEX(M4, 8)</f>
         <v>00001D91</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" ref="O4:O67" si="2">_xlfn.CONCAT("0x", N4)</f>
+        <f t="shared" ref="O4:O67" si="1">_xlfn.CONCAT("0x", N4)</f>
         <v>0x00001D91</v>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" si="0"/>
-        <v>#define D0 3</v>
+        <f t="shared" ref="Q4:Q67" si="2">_xlfn.CONCAT("#define ", I4, " ", O4)</f>
+        <v>#define D0 0x00001D91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -687,16 +687,16 @@
         <v>7141</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00001BE5</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00001BE5</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Eb0 4</v>
+        <f t="shared" si="2"/>
+        <v>#define Eb0 0x00001BE5</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -729,16 +729,16 @@
         <v>6742</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00001A56</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00001A56</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="0"/>
-        <v>#define E0 5</v>
+        <f t="shared" si="2"/>
+        <v>#define E0 0x00001A56</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -771,16 +771,16 @@
         <v>6362</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000018DA</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000018DA</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="0"/>
-        <v>#define F0 6</v>
+        <f t="shared" si="2"/>
+        <v>#define F0 0x000018DA</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -813,16 +813,16 @@
         <v>6007</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00001777</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00001777</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Gb0 7</v>
+        <f t="shared" si="2"/>
+        <v>#define Gb0 0x00001777</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -852,16 +852,16 @@
         <v>5669</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00001625</v>
       </c>
       <c r="O9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00001625</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" si="0"/>
-        <v>#define G0 8</v>
+        <f t="shared" si="2"/>
+        <v>#define G0 0x00001625</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -888,16 +888,16 @@
         <v>5350</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000014E6</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000014E6</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Ab0 9</v>
+        <f t="shared" si="2"/>
+        <v>#define Ab0 0x000014E6</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -924,16 +924,16 @@
         <v>5051</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000013BB</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000013BB</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="0"/>
-        <v>#define A0 10</v>
+        <f t="shared" si="2"/>
+        <v>#define A0 0x000013BB</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -960,16 +960,16 @@
         <v>4766</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0000129E</v>
       </c>
       <c r="O12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x0000129E</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Bb0 11</v>
+        <f t="shared" si="2"/>
+        <v>#define Bb0 0x0000129E</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1008,16 +1008,16 @@
         <v>4499</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00001193</v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00001193</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="0"/>
-        <v>#define B0 12</v>
+        <f t="shared" si="2"/>
+        <v>#define B0 0x00001193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1059,16 +1059,16 @@
         <v>4247</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00001097</v>
       </c>
       <c r="O14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00001097</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" si="0"/>
-        <v>#define C1 13</v>
+        <f t="shared" si="2"/>
+        <v>#define C1 0x00001097</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1107,16 +1107,16 @@
         <v>4008</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000FA8</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000FA8</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Db1 14</v>
+        <f t="shared" si="2"/>
+        <v>#define Db1 0x00000FA8</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1155,16 +1155,16 @@
         <v>3783</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000EC7</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000EC7</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" si="0"/>
-        <v>#define D1 15</v>
+        <f t="shared" si="2"/>
+        <v>#define D1 0x00000EC7</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1203,16 +1203,16 @@
         <v>3571</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000DF3</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000DF3</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Eb1 16</v>
+        <f t="shared" si="2"/>
+        <v>#define Eb1 0x00000DF3</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1251,16 +1251,16 @@
         <v>3371</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000D2B</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000D2B</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="0"/>
-        <v>#define E1 17</v>
+        <f t="shared" si="2"/>
+        <v>#define E1 0x00000D2B</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1299,16 +1299,16 @@
         <v>3182</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000C6E</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000C6E</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="0"/>
-        <v>#define F1 18</v>
+        <f t="shared" si="2"/>
+        <v>#define F1 0x00000C6E</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -1347,16 +1347,16 @@
         <v>3003</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000BBB</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000BBB</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Gb1 19</v>
+        <f t="shared" si="2"/>
+        <v>#define Gb1 0x00000BBB</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -1395,16 +1395,16 @@
         <v>2834</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000B12</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000B12</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="0"/>
-        <v>#define G1 20</v>
+        <f t="shared" si="2"/>
+        <v>#define G1 0x00000B12</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -1443,16 +1443,16 @@
         <v>2676</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000A74</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000A74</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Ab1 21</v>
+        <f t="shared" si="2"/>
+        <v>#define Ab1 0x00000A74</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -1491,16 +1491,16 @@
         <v>2525</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000009DD</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000009DD</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="0"/>
-        <v>#define A1 22</v>
+        <f t="shared" si="2"/>
+        <v>#define A1 0x000009DD</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -1539,16 +1539,16 @@
         <v>2384</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000950</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000950</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Bb1 23</v>
+        <f t="shared" si="2"/>
+        <v>#define Bb1 0x00000950</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -1587,16 +1587,16 @@
         <v>2250</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000008CA</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000008CA</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="0"/>
-        <v>#define B1 24</v>
+        <f t="shared" si="2"/>
+        <v>#define B1 0x000008CA</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -1623,16 +1623,16 @@
         <v>2123</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0000084B</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x0000084B</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="0"/>
-        <v>#define C2 25</v>
+        <f t="shared" si="2"/>
+        <v>#define C2 0x0000084B</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -1659,16 +1659,16 @@
         <v>2004</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000007D4</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000007D4</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Db2 26</v>
+        <f t="shared" si="2"/>
+        <v>#define Db2 0x000007D4</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -1695,16 +1695,16 @@
         <v>1892</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000764</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000764</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="0"/>
-        <v>#define D2 27</v>
+        <f t="shared" si="2"/>
+        <v>#define D2 0x00000764</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -1731,16 +1731,16 @@
         <v>1786</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000006FA</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000006FA</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Eb2 28</v>
+        <f t="shared" si="2"/>
+        <v>#define Eb2 0x000006FA</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -1767,16 +1767,16 @@
         <v>1685</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000695</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000695</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="0"/>
-        <v>#define E2 29</v>
+        <f t="shared" si="2"/>
+        <v>#define E2 0x00000695</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -1803,16 +1803,16 @@
         <v>1591</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000637</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000637</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="0"/>
-        <v>#define F2 30</v>
+        <f t="shared" si="2"/>
+        <v>#define F2 0x00000637</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -1839,16 +1839,16 @@
         <v>1502</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000005DE</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000005DE</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Gb2 31</v>
+        <f t="shared" si="2"/>
+        <v>#define Gb2 0x000005DE</v>
       </c>
     </row>
     <row r="33" spans="7:17" x14ac:dyDescent="0.25">
@@ -1875,16 +1875,16 @@
         <v>1417</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000589</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000589</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="0"/>
-        <v>#define G2 32</v>
+        <f t="shared" si="2"/>
+        <v>#define G2 0x00000589</v>
       </c>
     </row>
     <row r="34" spans="7:17" x14ac:dyDescent="0.25">
@@ -1911,16 +1911,16 @@
         <v>1338</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0000053A</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x0000053A</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Ab2 33</v>
+        <f t="shared" si="2"/>
+        <v>#define Ab2 0x0000053A</v>
       </c>
     </row>
     <row r="35" spans="7:17" x14ac:dyDescent="0.25">
@@ -1947,16 +1947,16 @@
         <v>1263</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000004EF</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000004EF</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="0"/>
-        <v>#define A2 34</v>
+        <f t="shared" si="2"/>
+        <v>#define A2 0x000004EF</v>
       </c>
     </row>
     <row r="36" spans="7:17" x14ac:dyDescent="0.25">
@@ -1983,16 +1983,16 @@
         <v>1192</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000004A8</v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000004A8</v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Bb2 35</v>
+        <f t="shared" si="2"/>
+        <v>#define Bb2 0x000004A8</v>
       </c>
     </row>
     <row r="37" spans="7:17" x14ac:dyDescent="0.25">
@@ -2019,16 +2019,16 @@
         <v>1125</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000465</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000465</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="0"/>
-        <v>#define B2 36</v>
+        <f t="shared" si="2"/>
+        <v>#define B2 0x00000465</v>
       </c>
     </row>
     <row r="38" spans="7:17" x14ac:dyDescent="0.25">
@@ -2055,16 +2055,16 @@
         <v>1062</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000426</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000426</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="0"/>
-        <v>#define C3 37</v>
+        <f t="shared" si="2"/>
+        <v>#define C3 0x00000426</v>
       </c>
     </row>
     <row r="39" spans="7:17" x14ac:dyDescent="0.25">
@@ -2091,16 +2091,16 @@
         <v>1002</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000003EA</v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000003EA</v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Db3 38</v>
+        <f t="shared" si="2"/>
+        <v>#define Db3 0x000003EA</v>
       </c>
     </row>
     <row r="40" spans="7:17" x14ac:dyDescent="0.25">
@@ -2127,16 +2127,16 @@
         <v>946</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000003B2</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000003B2</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="0"/>
-        <v>#define D3 39</v>
+        <f t="shared" si="2"/>
+        <v>#define D3 0x000003B2</v>
       </c>
     </row>
     <row r="41" spans="7:17" x14ac:dyDescent="0.25">
@@ -2163,16 +2163,16 @@
         <v>893</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0000037D</v>
       </c>
       <c r="O41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x0000037D</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Eb3 40</v>
+        <f t="shared" si="2"/>
+        <v>#define Eb3 0x0000037D</v>
       </c>
     </row>
     <row r="42" spans="7:17" x14ac:dyDescent="0.25">
@@ -2199,16 +2199,16 @@
         <v>843</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0000034B</v>
       </c>
       <c r="O42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x0000034B</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="0"/>
-        <v>#define E3 41</v>
+        <f t="shared" si="2"/>
+        <v>#define E3 0x0000034B</v>
       </c>
     </row>
     <row r="43" spans="7:17" x14ac:dyDescent="0.25">
@@ -2235,16 +2235,16 @@
         <v>795</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0000031B</v>
       </c>
       <c r="O43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x0000031B</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="0"/>
-        <v>#define F3 42</v>
+        <f t="shared" si="2"/>
+        <v>#define F3 0x0000031B</v>
       </c>
     </row>
     <row r="44" spans="7:17" x14ac:dyDescent="0.25">
@@ -2271,16 +2271,16 @@
         <v>751</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000002EF</v>
       </c>
       <c r="O44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000002EF</v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Gb3 43</v>
+        <f t="shared" si="2"/>
+        <v>#define Gb3 0x000002EF</v>
       </c>
     </row>
     <row r="45" spans="7:17" x14ac:dyDescent="0.25">
@@ -2307,16 +2307,16 @@
         <v>709</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000002C5</v>
       </c>
       <c r="O45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000002C5</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="0"/>
-        <v>#define G3 44</v>
+        <f t="shared" si="2"/>
+        <v>#define G3 0x000002C5</v>
       </c>
     </row>
     <row r="46" spans="7:17" x14ac:dyDescent="0.25">
@@ -2343,16 +2343,16 @@
         <v>669</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0000029D</v>
       </c>
       <c r="O46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x0000029D</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Ab3 45</v>
+        <f t="shared" si="2"/>
+        <v>#define Ab3 0x0000029D</v>
       </c>
     </row>
     <row r="47" spans="7:17" x14ac:dyDescent="0.25">
@@ -2379,16 +2379,16 @@
         <v>631</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000277</v>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000277</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="0"/>
-        <v>#define A3 46</v>
+        <f t="shared" si="2"/>
+        <v>#define A3 0x00000277</v>
       </c>
     </row>
     <row r="48" spans="7:17" x14ac:dyDescent="0.25">
@@ -2415,16 +2415,16 @@
         <v>596</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000254</v>
       </c>
       <c r="O48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000254</v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Bb3 47</v>
+        <f t="shared" si="2"/>
+        <v>#define Bb3 0x00000254</v>
       </c>
     </row>
     <row r="49" spans="7:17" x14ac:dyDescent="0.25">
@@ -2451,16 +2451,16 @@
         <v>563</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000233</v>
       </c>
       <c r="O49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000233</v>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" si="0"/>
-        <v>#define B3 48</v>
+        <f t="shared" si="2"/>
+        <v>#define B3 0x00000233</v>
       </c>
     </row>
     <row r="50" spans="7:17" x14ac:dyDescent="0.25">
@@ -2487,16 +2487,16 @@
         <v>531</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000213</v>
       </c>
       <c r="O50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000213</v>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" si="0"/>
-        <v>#define C4 49</v>
+        <f t="shared" si="2"/>
+        <v>#define C4 0x00000213</v>
       </c>
     </row>
     <row r="51" spans="7:17" x14ac:dyDescent="0.25">
@@ -2523,16 +2523,16 @@
         <v>501</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000001F5</v>
       </c>
       <c r="O51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000001F5</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Db4 50</v>
+        <f t="shared" si="2"/>
+        <v>#define Db4 0x000001F5</v>
       </c>
     </row>
     <row r="52" spans="7:17" x14ac:dyDescent="0.25">
@@ -2559,16 +2559,16 @@
         <v>473</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000001D9</v>
       </c>
       <c r="O52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000001D9</v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" si="0"/>
-        <v>#define D4 51</v>
+        <f t="shared" si="2"/>
+        <v>#define D4 0x000001D9</v>
       </c>
     </row>
     <row r="53" spans="7:17" x14ac:dyDescent="0.25">
@@ -2595,16 +2595,16 @@
         <v>446</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000001BE</v>
       </c>
       <c r="O53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000001BE</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Eb4 52</v>
+        <f t="shared" si="2"/>
+        <v>#define Eb4 0x000001BE</v>
       </c>
     </row>
     <row r="54" spans="7:17" x14ac:dyDescent="0.25">
@@ -2631,16 +2631,16 @@
         <v>421</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000001A5</v>
       </c>
       <c r="O54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000001A5</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" si="0"/>
-        <v>#define E4 53</v>
+        <f t="shared" si="2"/>
+        <v>#define E4 0x000001A5</v>
       </c>
     </row>
     <row r="55" spans="7:17" x14ac:dyDescent="0.25">
@@ -2667,16 +2667,16 @@
         <v>398</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0000018E</v>
       </c>
       <c r="O55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x0000018E</v>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" si="0"/>
-        <v>#define F4 54</v>
+        <f t="shared" si="2"/>
+        <v>#define F4 0x0000018E</v>
       </c>
     </row>
     <row r="56" spans="7:17" x14ac:dyDescent="0.25">
@@ -2703,16 +2703,16 @@
         <v>375</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000177</v>
       </c>
       <c r="O56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000177</v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Gb4 55</v>
+        <f t="shared" si="2"/>
+        <v>#define Gb4 0x00000177</v>
       </c>
     </row>
     <row r="57" spans="7:17" x14ac:dyDescent="0.25">
@@ -2739,16 +2739,16 @@
         <v>354</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000162</v>
       </c>
       <c r="O57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000162</v>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" si="0"/>
-        <v>#define G4 56</v>
+        <f t="shared" si="2"/>
+        <v>#define G4 0x00000162</v>
       </c>
     </row>
     <row r="58" spans="7:17" x14ac:dyDescent="0.25">
@@ -2775,16 +2775,16 @@
         <v>334</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0000014E</v>
       </c>
       <c r="O58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x0000014E</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Ab4 57</v>
+        <f t="shared" si="2"/>
+        <v>#define Ab4 0x0000014E</v>
       </c>
     </row>
     <row r="59" spans="7:17" x14ac:dyDescent="0.25">
@@ -2811,16 +2811,16 @@
         <v>316</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0000013C</v>
       </c>
       <c r="O59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x0000013C</v>
       </c>
       <c r="Q59" t="str">
-        <f t="shared" si="0"/>
-        <v>#define A4 58</v>
+        <f t="shared" si="2"/>
+        <v>#define A4 0x0000013C</v>
       </c>
     </row>
     <row r="60" spans="7:17" x14ac:dyDescent="0.25">
@@ -2847,16 +2847,16 @@
         <v>298</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0000012A</v>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x0000012A</v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Bb4 59</v>
+        <f t="shared" si="2"/>
+        <v>#define Bb4 0x0000012A</v>
       </c>
     </row>
     <row r="61" spans="7:17" x14ac:dyDescent="0.25">
@@ -2883,16 +2883,16 @@
         <v>281</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000119</v>
       </c>
       <c r="O61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000119</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" si="0"/>
-        <v>#define B4 60</v>
+        <f t="shared" si="2"/>
+        <v>#define B4 0x00000119</v>
       </c>
     </row>
     <row r="62" spans="7:17" x14ac:dyDescent="0.25">
@@ -2919,16 +2919,16 @@
         <v>265</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>00000109</v>
       </c>
       <c r="O62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x00000109</v>
       </c>
       <c r="Q62" t="str">
-        <f t="shared" si="0"/>
-        <v>#define C5 61</v>
+        <f t="shared" si="2"/>
+        <v>#define C5 0x00000109</v>
       </c>
     </row>
     <row r="63" spans="7:17" x14ac:dyDescent="0.25">
@@ -2955,16 +2955,16 @@
         <v>251</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000000FB</v>
       </c>
       <c r="O63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000000FB</v>
       </c>
       <c r="Q63" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Db5 62</v>
+        <f t="shared" si="2"/>
+        <v>#define Db5 0x000000FB</v>
       </c>
     </row>
     <row r="64" spans="7:17" x14ac:dyDescent="0.25">
@@ -2991,16 +2991,16 @@
         <v>236</v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000000EC</v>
       </c>
       <c r="O64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000000EC</v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" si="0"/>
-        <v>#define D5 63</v>
+        <f t="shared" si="2"/>
+        <v>#define D5 0x000000EC</v>
       </c>
     </row>
     <row r="65" spans="7:17" x14ac:dyDescent="0.25">
@@ -3027,16 +3027,16 @@
         <v>223</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000000DF</v>
       </c>
       <c r="O65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000000DF</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" si="0"/>
-        <v>#define Eb5 64</v>
+        <f t="shared" si="2"/>
+        <v>#define Eb5 0x000000DF</v>
       </c>
     </row>
     <row r="66" spans="7:17" x14ac:dyDescent="0.25">
@@ -3063,16 +3063,16 @@
         <v>211</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000000D3</v>
       </c>
       <c r="O66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000000D3</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" si="0"/>
-        <v>#define E5 65</v>
+        <f t="shared" si="2"/>
+        <v>#define E5 0x000000D3</v>
       </c>
     </row>
     <row r="67" spans="7:17" x14ac:dyDescent="0.25">
@@ -3099,16 +3099,16 @@
         <v>199</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>000000C7</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0x000000C7</v>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" ref="Q67:Q121" si="4">_xlfn.CONCAT("#define ", I67, " ", J67)</f>
-        <v>#define F5 66</v>
+        <f t="shared" si="2"/>
+        <v>#define F5 0x000000C7</v>
       </c>
     </row>
     <row r="68" spans="7:17" x14ac:dyDescent="0.25">
@@ -3135,16 +3135,16 @@
         <v>188</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" ref="N68:N121" si="5">DEC2HEX(M68, 8)</f>
+        <f t="shared" ref="N68:N121" si="4">DEC2HEX(M68, 8)</f>
         <v>000000BC</v>
       </c>
       <c r="O68" t="str">
-        <f t="shared" ref="O68:O121" si="6">_xlfn.CONCAT("0x", N68)</f>
+        <f t="shared" ref="O68:O121" si="5">_xlfn.CONCAT("0x", N68)</f>
         <v>0x000000BC</v>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Gb5 67</v>
+        <f t="shared" ref="Q68:Q121" si="6">_xlfn.CONCAT("#define ", I68, " ", O68)</f>
+        <v>#define Gb5 0x000000BC</v>
       </c>
     </row>
     <row r="69" spans="7:17" x14ac:dyDescent="0.25">
@@ -3171,16 +3171,16 @@
         <v>177</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>000000B1</v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x000000B1</v>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" si="4"/>
-        <v>#define G5 68</v>
+        <f t="shared" si="6"/>
+        <v>#define G5 0x000000B1</v>
       </c>
     </row>
     <row r="70" spans="7:17" x14ac:dyDescent="0.25">
@@ -3207,16 +3207,16 @@
         <v>167</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>000000A7</v>
       </c>
       <c r="O70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x000000A7</v>
       </c>
       <c r="Q70" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Ab5 69</v>
+        <f t="shared" si="6"/>
+        <v>#define Ab5 0x000000A7</v>
       </c>
     </row>
     <row r="71" spans="7:17" x14ac:dyDescent="0.25">
@@ -3243,16 +3243,16 @@
         <v>158</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000009E</v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000009E</v>
       </c>
       <c r="Q71" t="str">
-        <f t="shared" si="4"/>
-        <v>#define A5 70</v>
+        <f t="shared" si="6"/>
+        <v>#define A5 0x0000009E</v>
       </c>
     </row>
     <row r="72" spans="7:17" x14ac:dyDescent="0.25">
@@ -3279,16 +3279,16 @@
         <v>149</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000095</v>
       </c>
       <c r="O72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000095</v>
       </c>
       <c r="Q72" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Bb5 71</v>
+        <f t="shared" si="6"/>
+        <v>#define Bb5 0x00000095</v>
       </c>
     </row>
     <row r="73" spans="7:17" x14ac:dyDescent="0.25">
@@ -3315,16 +3315,16 @@
         <v>141</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000008D</v>
       </c>
       <c r="O73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000008D</v>
       </c>
       <c r="Q73" t="str">
-        <f t="shared" si="4"/>
-        <v>#define B5 72</v>
+        <f t="shared" si="6"/>
+        <v>#define B5 0x0000008D</v>
       </c>
     </row>
     <row r="74" spans="7:17" x14ac:dyDescent="0.25">
@@ -3351,16 +3351,16 @@
         <v>133</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000085</v>
       </c>
       <c r="O74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000085</v>
       </c>
       <c r="Q74" t="str">
-        <f t="shared" si="4"/>
-        <v>#define C6 73</v>
+        <f t="shared" si="6"/>
+        <v>#define C6 0x00000085</v>
       </c>
     </row>
     <row r="75" spans="7:17" x14ac:dyDescent="0.25">
@@ -3387,16 +3387,16 @@
         <v>125</v>
       </c>
       <c r="N75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000007D</v>
       </c>
       <c r="O75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000007D</v>
       </c>
       <c r="Q75" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Db6 74</v>
+        <f t="shared" si="6"/>
+        <v>#define Db6 0x0000007D</v>
       </c>
     </row>
     <row r="76" spans="7:17" x14ac:dyDescent="0.25">
@@ -3423,16 +3423,16 @@
         <v>118</v>
       </c>
       <c r="N76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000076</v>
       </c>
       <c r="O76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000076</v>
       </c>
       <c r="Q76" t="str">
-        <f t="shared" si="4"/>
-        <v>#define D6 75</v>
+        <f t="shared" si="6"/>
+        <v>#define D6 0x00000076</v>
       </c>
     </row>
     <row r="77" spans="7:17" x14ac:dyDescent="0.25">
@@ -3459,16 +3459,16 @@
         <v>112</v>
       </c>
       <c r="N77" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000070</v>
       </c>
       <c r="O77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000070</v>
       </c>
       <c r="Q77" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Eb6 76</v>
+        <f t="shared" si="6"/>
+        <v>#define Eb6 0x00000070</v>
       </c>
     </row>
     <row r="78" spans="7:17" x14ac:dyDescent="0.25">
@@ -3495,16 +3495,16 @@
         <v>105</v>
       </c>
       <c r="N78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000069</v>
       </c>
       <c r="O78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000069</v>
       </c>
       <c r="Q78" t="str">
-        <f t="shared" si="4"/>
-        <v>#define E6 77</v>
+        <f t="shared" si="6"/>
+        <v>#define E6 0x00000069</v>
       </c>
     </row>
     <row r="79" spans="7:17" x14ac:dyDescent="0.25">
@@ -3531,16 +3531,16 @@
         <v>99</v>
       </c>
       <c r="N79" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000063</v>
       </c>
       <c r="O79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000063</v>
       </c>
       <c r="Q79" t="str">
-        <f t="shared" si="4"/>
-        <v>#define F6 78</v>
+        <f t="shared" si="6"/>
+        <v>#define F6 0x00000063</v>
       </c>
     </row>
     <row r="80" spans="7:17" x14ac:dyDescent="0.25">
@@ -3567,16 +3567,16 @@
         <v>94</v>
       </c>
       <c r="N80" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000005E</v>
       </c>
       <c r="O80" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000005E</v>
       </c>
       <c r="Q80" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Gb6 79</v>
+        <f t="shared" si="6"/>
+        <v>#define Gb6 0x0000005E</v>
       </c>
     </row>
     <row r="81" spans="7:17" x14ac:dyDescent="0.25">
@@ -3603,16 +3603,16 @@
         <v>89</v>
       </c>
       <c r="N81" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000059</v>
       </c>
       <c r="O81" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000059</v>
       </c>
       <c r="Q81" t="str">
-        <f t="shared" si="4"/>
-        <v>#define G6 80</v>
+        <f t="shared" si="6"/>
+        <v>#define G6 0x00000059</v>
       </c>
     </row>
     <row r="82" spans="7:17" x14ac:dyDescent="0.25">
@@ -3639,16 +3639,16 @@
         <v>84</v>
       </c>
       <c r="N82" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000054</v>
       </c>
       <c r="O82" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000054</v>
       </c>
       <c r="Q82" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Ab6 81</v>
+        <f t="shared" si="6"/>
+        <v>#define Ab6 0x00000054</v>
       </c>
     </row>
     <row r="83" spans="7:17" x14ac:dyDescent="0.25">
@@ -3675,16 +3675,16 @@
         <v>79</v>
       </c>
       <c r="N83" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000004F</v>
       </c>
       <c r="O83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000004F</v>
       </c>
       <c r="Q83" t="str">
-        <f t="shared" si="4"/>
-        <v>#define A6 82</v>
+        <f t="shared" si="6"/>
+        <v>#define A6 0x0000004F</v>
       </c>
     </row>
     <row r="84" spans="7:17" x14ac:dyDescent="0.25">
@@ -3711,16 +3711,16 @@
         <v>74</v>
       </c>
       <c r="N84" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000004A</v>
       </c>
       <c r="O84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000004A</v>
       </c>
       <c r="Q84" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Bb6 83</v>
+        <f t="shared" si="6"/>
+        <v>#define Bb6 0x0000004A</v>
       </c>
     </row>
     <row r="85" spans="7:17" x14ac:dyDescent="0.25">
@@ -3747,16 +3747,16 @@
         <v>70</v>
       </c>
       <c r="N85" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000046</v>
       </c>
       <c r="O85" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000046</v>
       </c>
       <c r="Q85" t="str">
-        <f t="shared" si="4"/>
-        <v>#define B6 84</v>
+        <f t="shared" si="6"/>
+        <v>#define B6 0x00000046</v>
       </c>
     </row>
     <row r="86" spans="7:17" x14ac:dyDescent="0.25">
@@ -3783,16 +3783,16 @@
         <v>66</v>
       </c>
       <c r="N86" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000042</v>
       </c>
       <c r="O86" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000042</v>
       </c>
       <c r="Q86" t="str">
-        <f t="shared" si="4"/>
-        <v>#define C7 85</v>
+        <f t="shared" si="6"/>
+        <v>#define C7 0x00000042</v>
       </c>
     </row>
     <row r="87" spans="7:17" x14ac:dyDescent="0.25">
@@ -3819,16 +3819,16 @@
         <v>63</v>
       </c>
       <c r="N87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000003F</v>
       </c>
       <c r="O87" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000003F</v>
       </c>
       <c r="Q87" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Db7 86</v>
+        <f t="shared" si="6"/>
+        <v>#define Db7 0x0000003F</v>
       </c>
     </row>
     <row r="88" spans="7:17" x14ac:dyDescent="0.25">
@@ -3855,16 +3855,16 @@
         <v>59</v>
       </c>
       <c r="N88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000003B</v>
       </c>
       <c r="O88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000003B</v>
       </c>
       <c r="Q88" t="str">
-        <f t="shared" si="4"/>
-        <v>#define D7 87</v>
+        <f t="shared" si="6"/>
+        <v>#define D7 0x0000003B</v>
       </c>
     </row>
     <row r="89" spans="7:17" x14ac:dyDescent="0.25">
@@ -3891,16 +3891,16 @@
         <v>56</v>
       </c>
       <c r="N89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000038</v>
       </c>
       <c r="O89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000038</v>
       </c>
       <c r="Q89" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Eb7 88</v>
+        <f t="shared" si="6"/>
+        <v>#define Eb7 0x00000038</v>
       </c>
     </row>
     <row r="90" spans="7:17" x14ac:dyDescent="0.25">
@@ -3927,16 +3927,16 @@
         <v>53</v>
       </c>
       <c r="N90" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000035</v>
       </c>
       <c r="O90" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000035</v>
       </c>
       <c r="Q90" t="str">
-        <f t="shared" si="4"/>
-        <v>#define E7 89</v>
+        <f t="shared" si="6"/>
+        <v>#define E7 0x00000035</v>
       </c>
     </row>
     <row r="91" spans="7:17" x14ac:dyDescent="0.25">
@@ -3963,16 +3963,16 @@
         <v>50</v>
       </c>
       <c r="N91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000032</v>
       </c>
       <c r="O91" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000032</v>
       </c>
       <c r="Q91" t="str">
-        <f t="shared" si="4"/>
-        <v>#define F7 90</v>
+        <f t="shared" si="6"/>
+        <v>#define F7 0x00000032</v>
       </c>
     </row>
     <row r="92" spans="7:17" x14ac:dyDescent="0.25">
@@ -3999,16 +3999,16 @@
         <v>47</v>
       </c>
       <c r="N92" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000002F</v>
       </c>
       <c r="O92" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000002F</v>
       </c>
       <c r="Q92" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Gb7 91</v>
+        <f t="shared" si="6"/>
+        <v>#define Gb7 0x0000002F</v>
       </c>
     </row>
     <row r="93" spans="7:17" x14ac:dyDescent="0.25">
@@ -4035,16 +4035,16 @@
         <v>44</v>
       </c>
       <c r="N93" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000002C</v>
       </c>
       <c r="O93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000002C</v>
       </c>
       <c r="Q93" t="str">
-        <f t="shared" si="4"/>
-        <v>#define G7 92</v>
+        <f t="shared" si="6"/>
+        <v>#define G7 0x0000002C</v>
       </c>
     </row>
     <row r="94" spans="7:17" x14ac:dyDescent="0.25">
@@ -4071,16 +4071,16 @@
         <v>42</v>
       </c>
       <c r="N94" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000002A</v>
       </c>
       <c r="O94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000002A</v>
       </c>
       <c r="Q94" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Ab7 93</v>
+        <f t="shared" si="6"/>
+        <v>#define Ab7 0x0000002A</v>
       </c>
     </row>
     <row r="95" spans="7:17" x14ac:dyDescent="0.25">
@@ -4107,16 +4107,16 @@
         <v>39</v>
       </c>
       <c r="N95" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000027</v>
       </c>
       <c r="O95" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000027</v>
       </c>
       <c r="Q95" t="str">
-        <f t="shared" si="4"/>
-        <v>#define A7 94</v>
+        <f t="shared" si="6"/>
+        <v>#define A7 0x00000027</v>
       </c>
     </row>
     <row r="96" spans="7:17" x14ac:dyDescent="0.25">
@@ -4143,16 +4143,16 @@
         <v>37</v>
       </c>
       <c r="N96" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000025</v>
       </c>
       <c r="O96" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000025</v>
       </c>
       <c r="Q96" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Bb7 95</v>
+        <f t="shared" si="6"/>
+        <v>#define Bb7 0x00000025</v>
       </c>
     </row>
     <row r="97" spans="7:17" x14ac:dyDescent="0.25">
@@ -4179,16 +4179,16 @@
         <v>35</v>
       </c>
       <c r="N97" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000023</v>
       </c>
       <c r="O97" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000023</v>
       </c>
       <c r="Q97" t="str">
-        <f t="shared" si="4"/>
-        <v>#define B7 96</v>
+        <f t="shared" si="6"/>
+        <v>#define B7 0x00000023</v>
       </c>
     </row>
     <row r="98" spans="7:17" x14ac:dyDescent="0.25">
@@ -4215,16 +4215,16 @@
         <v>33</v>
       </c>
       <c r="N98" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000021</v>
       </c>
       <c r="O98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000021</v>
       </c>
       <c r="Q98" t="str">
-        <f t="shared" si="4"/>
-        <v>#define C8 97</v>
+        <f t="shared" si="6"/>
+        <v>#define C8 0x00000021</v>
       </c>
     </row>
     <row r="99" spans="7:17" x14ac:dyDescent="0.25">
@@ -4251,16 +4251,16 @@
         <v>31</v>
       </c>
       <c r="N99" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000001F</v>
       </c>
       <c r="O99" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000001F</v>
       </c>
       <c r="Q99" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Db8 98</v>
+        <f t="shared" si="6"/>
+        <v>#define Db8 0x0000001F</v>
       </c>
     </row>
     <row r="100" spans="7:17" x14ac:dyDescent="0.25">
@@ -4287,16 +4287,16 @@
         <v>30</v>
       </c>
       <c r="N100" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000001E</v>
       </c>
       <c r="O100" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000001E</v>
       </c>
       <c r="Q100" t="str">
-        <f t="shared" si="4"/>
-        <v>#define D8 99</v>
+        <f t="shared" si="6"/>
+        <v>#define D8 0x0000001E</v>
       </c>
     </row>
     <row r="101" spans="7:17" x14ac:dyDescent="0.25">
@@ -4323,16 +4323,16 @@
         <v>28</v>
       </c>
       <c r="N101" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000001C</v>
       </c>
       <c r="O101" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000001C</v>
       </c>
       <c r="Q101" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Eb8 100</v>
+        <f t="shared" si="6"/>
+        <v>#define Eb8 0x0000001C</v>
       </c>
     </row>
     <row r="102" spans="7:17" x14ac:dyDescent="0.25">
@@ -4359,16 +4359,16 @@
         <v>26</v>
       </c>
       <c r="N102" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000001A</v>
       </c>
       <c r="O102" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000001A</v>
       </c>
       <c r="Q102" t="str">
-        <f t="shared" si="4"/>
-        <v>#define E8 101</v>
+        <f t="shared" si="6"/>
+        <v>#define E8 0x0000001A</v>
       </c>
     </row>
     <row r="103" spans="7:17" x14ac:dyDescent="0.25">
@@ -4395,16 +4395,16 @@
         <v>25</v>
       </c>
       <c r="N103" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000019</v>
       </c>
       <c r="O103" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000019</v>
       </c>
       <c r="Q103" t="str">
-        <f t="shared" si="4"/>
-        <v>#define F8 102</v>
+        <f t="shared" si="6"/>
+        <v>#define F8 0x00000019</v>
       </c>
     </row>
     <row r="104" spans="7:17" x14ac:dyDescent="0.25">
@@ -4431,16 +4431,16 @@
         <v>23</v>
       </c>
       <c r="N104" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000017</v>
       </c>
       <c r="O104" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000017</v>
       </c>
       <c r="Q104" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Gb8 103</v>
+        <f t="shared" si="6"/>
+        <v>#define Gb8 0x00000017</v>
       </c>
     </row>
     <row r="105" spans="7:17" x14ac:dyDescent="0.25">
@@ -4467,16 +4467,16 @@
         <v>22</v>
       </c>
       <c r="N105" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000016</v>
       </c>
       <c r="O105" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000016</v>
       </c>
       <c r="Q105" t="str">
-        <f t="shared" si="4"/>
-        <v>#define G8 104</v>
+        <f t="shared" si="6"/>
+        <v>#define G8 0x00000016</v>
       </c>
     </row>
     <row r="106" spans="7:17" x14ac:dyDescent="0.25">
@@ -4503,16 +4503,16 @@
         <v>21</v>
       </c>
       <c r="N106" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000015</v>
       </c>
       <c r="O106" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000015</v>
       </c>
       <c r="Q106" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Ab8 105</v>
+        <f t="shared" si="6"/>
+        <v>#define Ab8 0x00000015</v>
       </c>
     </row>
     <row r="107" spans="7:17" x14ac:dyDescent="0.25">
@@ -4539,16 +4539,16 @@
         <v>20</v>
       </c>
       <c r="N107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000014</v>
       </c>
       <c r="O107" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000014</v>
       </c>
       <c r="Q107" t="str">
-        <f t="shared" si="4"/>
-        <v>#define A8 106</v>
+        <f t="shared" si="6"/>
+        <v>#define A8 0x00000014</v>
       </c>
     </row>
     <row r="108" spans="7:17" x14ac:dyDescent="0.25">
@@ -4575,16 +4575,16 @@
         <v>19</v>
       </c>
       <c r="N108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000013</v>
       </c>
       <c r="O108" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000013</v>
       </c>
       <c r="Q108" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Bb8 107</v>
+        <f t="shared" si="6"/>
+        <v>#define Bb8 0x00000013</v>
       </c>
     </row>
     <row r="109" spans="7:17" x14ac:dyDescent="0.25">
@@ -4611,16 +4611,16 @@
         <v>18</v>
       </c>
       <c r="N109" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000012</v>
       </c>
       <c r="O109" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000012</v>
       </c>
       <c r="Q109" t="str">
-        <f t="shared" si="4"/>
-        <v>#define B8 108</v>
+        <f t="shared" si="6"/>
+        <v>#define B8 0x00000012</v>
       </c>
     </row>
     <row r="110" spans="7:17" x14ac:dyDescent="0.25">
@@ -4647,16 +4647,16 @@
         <v>17</v>
       </c>
       <c r="N110" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000011</v>
       </c>
       <c r="O110" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000011</v>
       </c>
       <c r="Q110" t="str">
-        <f t="shared" si="4"/>
-        <v>#define C9 109</v>
+        <f t="shared" si="6"/>
+        <v>#define C9 0x00000011</v>
       </c>
     </row>
     <row r="111" spans="7:17" x14ac:dyDescent="0.25">
@@ -4683,16 +4683,16 @@
         <v>16</v>
       </c>
       <c r="N111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000010</v>
       </c>
       <c r="O111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000010</v>
       </c>
       <c r="Q111" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Db9 110</v>
+        <f t="shared" si="6"/>
+        <v>#define Db9 0x00000010</v>
       </c>
     </row>
     <row r="112" spans="7:17" x14ac:dyDescent="0.25">
@@ -4719,16 +4719,16 @@
         <v>15</v>
       </c>
       <c r="N112" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000000F</v>
       </c>
       <c r="O112" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000000F</v>
       </c>
       <c r="Q112" t="str">
-        <f t="shared" si="4"/>
-        <v>#define D9 111</v>
+        <f t="shared" si="6"/>
+        <v>#define D9 0x0000000F</v>
       </c>
     </row>
     <row r="113" spans="7:17" x14ac:dyDescent="0.25">
@@ -4755,16 +4755,16 @@
         <v>14</v>
       </c>
       <c r="N113" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000000E</v>
       </c>
       <c r="O113" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000000E</v>
       </c>
       <c r="Q113" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Eb9 112</v>
+        <f t="shared" si="6"/>
+        <v>#define Eb9 0x0000000E</v>
       </c>
     </row>
     <row r="114" spans="7:17" x14ac:dyDescent="0.25">
@@ -4791,16 +4791,16 @@
         <v>13</v>
       </c>
       <c r="N114" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000000D</v>
       </c>
       <c r="O114" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000000D</v>
       </c>
       <c r="Q114" t="str">
-        <f t="shared" si="4"/>
-        <v>#define E9 113</v>
+        <f t="shared" si="6"/>
+        <v>#define E9 0x0000000D</v>
       </c>
     </row>
     <row r="115" spans="7:17" x14ac:dyDescent="0.25">
@@ -4827,16 +4827,16 @@
         <v>12</v>
       </c>
       <c r="N115" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000000C</v>
       </c>
       <c r="O115" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000000C</v>
       </c>
       <c r="Q115" t="str">
-        <f t="shared" si="4"/>
-        <v>#define F9 114</v>
+        <f t="shared" si="6"/>
+        <v>#define F9 0x0000000C</v>
       </c>
     </row>
     <row r="116" spans="7:17" x14ac:dyDescent="0.25">
@@ -4863,16 +4863,16 @@
         <v>12</v>
       </c>
       <c r="N116" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000000C</v>
       </c>
       <c r="O116" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000000C</v>
       </c>
       <c r="Q116" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Gb9 115</v>
+        <f t="shared" si="6"/>
+        <v>#define Gb9 0x0000000C</v>
       </c>
     </row>
     <row r="117" spans="7:17" x14ac:dyDescent="0.25">
@@ -4899,16 +4899,16 @@
         <v>11</v>
       </c>
       <c r="N117" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000000B</v>
       </c>
       <c r="O117" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000000B</v>
       </c>
       <c r="Q117" t="str">
-        <f t="shared" si="4"/>
-        <v>#define G9 116</v>
+        <f t="shared" si="6"/>
+        <v>#define G9 0x0000000B</v>
       </c>
     </row>
     <row r="118" spans="7:17" x14ac:dyDescent="0.25">
@@ -4935,16 +4935,16 @@
         <v>10</v>
       </c>
       <c r="N118" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000000A</v>
       </c>
       <c r="O118" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000000A</v>
       </c>
       <c r="Q118" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Ab9 117</v>
+        <f t="shared" si="6"/>
+        <v>#define Ab9 0x0000000A</v>
       </c>
     </row>
     <row r="119" spans="7:17" x14ac:dyDescent="0.25">
@@ -4971,16 +4971,16 @@
         <v>10</v>
       </c>
       <c r="N119" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0000000A</v>
       </c>
       <c r="O119" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x0000000A</v>
       </c>
       <c r="Q119" t="str">
-        <f t="shared" si="4"/>
-        <v>#define A9 118</v>
+        <f t="shared" si="6"/>
+        <v>#define A9 0x0000000A</v>
       </c>
     </row>
     <row r="120" spans="7:17" x14ac:dyDescent="0.25">
@@ -5007,16 +5007,16 @@
         <v>9</v>
       </c>
       <c r="N120" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000009</v>
       </c>
       <c r="O120" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000009</v>
       </c>
       <c r="Q120" t="str">
-        <f t="shared" si="4"/>
-        <v>#define Bb9 119</v>
+        <f t="shared" si="6"/>
+        <v>#define Bb9 0x00000009</v>
       </c>
     </row>
     <row r="121" spans="7:17" x14ac:dyDescent="0.25">
@@ -5043,16 +5043,16 @@
         <v>9</v>
       </c>
       <c r="N121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00000009</v>
       </c>
       <c r="O121" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0x00000009</v>
       </c>
       <c r="Q121" t="str">
-        <f t="shared" si="4"/>
-        <v>#define B9 120</v>
+        <f t="shared" si="6"/>
+        <v>#define B9 0x00000009</v>
       </c>
     </row>
   </sheetData>

--- a/freq_calcs.xlsx
+++ b/freq_calcs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\School\MANTY\BlackboardSynth_MANTIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MANTY\BlackboardSynth_MANTIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4788CD8-8E14-4F87-B0E6-69495BA00063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C853F8-E976-4B31-BE70-3018D8384D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -465,17 +465,17 @@
   <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -516,7 +516,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -567,7 +567,7 @@
         <v>#define C0 0x0000212F</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -612,7 +612,7 @@
         <v>#define Db0 0x00001F53</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -657,7 +657,7 @@
         <v>#define D0 0x00001D91</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -699,7 +699,7 @@
         <v>#define Eb0 0x00001BE5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>16</v>
       </c>
@@ -741,7 +741,7 @@
         <v>#define E0 0x00001A56</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>32</v>
       </c>
@@ -783,7 +783,7 @@
         <v>#define F0 0x000018DA</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>64</v>
       </c>
@@ -825,7 +825,7 @@
         <v>#define Gb0 0x00001777</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E9" t="e">
         <v>#DIV/0!</v>
       </c>
@@ -864,7 +864,7 @@
         <v>#define G0 0x00001625</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10">
         <v>0</v>
       </c>
@@ -900,7 +900,7 @@
         <v>#define Ab0 0x000014E6</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G11">
         <v>0</v>
       </c>
@@ -936,7 +936,7 @@
         <v>#define A0 0x000013BB</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G12">
         <v>0</v>
       </c>
@@ -972,7 +972,7 @@
         <v>#define Bb0 0x0000129E</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1020,21 +1020,21 @@
         <v>#define B0 0x00001193</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14" cm="1">
-        <f t="array" ref="B14:B25">440*(2^(1/12))^A14:A25</f>
-        <v>440</v>
+        <f t="array" ref="B14:B25">32.7*(2^(1/12))^A14:A25</f>
+        <v>32.700000000000003</v>
       </c>
       <c r="D14" cm="1">
-        <f t="array" ref="D14:D25">ROUNDUP(C2/(90*B14:B25), 0)</f>
-        <v>2526</v>
+        <f t="array" ref="D14:D25">ROUNDUP(C2/(720*B14:B25), 0)</f>
+        <v>4248</v>
       </c>
       <c r="E14" cm="1">
         <f t="array" ref="E14:E25">D14:D25/8</f>
-        <v>315.75</v>
+        <v>531</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1071,18 +1071,18 @@
         <v>#define C1 0x00001097</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15">
-        <v>466.16376151808993</v>
+        <v>34.644443185548958</v>
       </c>
       <c r="D15">
-        <v>2384</v>
+        <v>4009</v>
       </c>
       <c r="E15">
-        <v>298</v>
+        <v>501.125</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1119,18 +1119,18 @@
         <v>#define Db1 0x00000FA8</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16">
-        <v>493.88330125612413</v>
+        <v>36.704508979716501</v>
       </c>
       <c r="D16">
-        <v>2250</v>
+        <v>3784</v>
       </c>
       <c r="E16">
-        <v>281.25</v>
+        <v>473</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1167,18 +1167,18 @@
         <v>#define D1 0x00000EC7</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17">
-        <v>523.25113060119736</v>
+        <v>38.887072660588991</v>
       </c>
       <c r="D17">
-        <v>2124</v>
+        <v>3572</v>
       </c>
       <c r="E17">
-        <v>265.5</v>
+        <v>446.5</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1215,18 +1215,18 @@
         <v>#define Eb1 0x00000DF3</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
       <c r="B18">
-        <v>554.36526195374415</v>
+        <v>41.199418331562356</v>
       </c>
       <c r="D18">
-        <v>2005</v>
+        <v>3372</v>
       </c>
       <c r="E18">
-        <v>250.625</v>
+        <v>421.5</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1263,18 +1263,18 @@
         <v>#define E1 0x00000D2B</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
       <c r="B19">
-        <v>587.32953583481515</v>
+        <v>43.649263231360131</v>
       </c>
       <c r="D19">
-        <v>1892</v>
+        <v>3182</v>
       </c>
       <c r="E19">
-        <v>236.5</v>
+        <v>397.75</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1311,18 +1311,18 @@
         <v>#define F1 0x00000C6E</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6</v>
       </c>
       <c r="B20">
-        <v>622.25396744416184</v>
+        <v>46.244783489600216</v>
       </c>
       <c r="D20">
-        <v>1786</v>
+        <v>3004</v>
       </c>
       <c r="E20">
-        <v>223.25</v>
+        <v>375.5</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1359,18 +1359,18 @@
         <v>#define Gb1 0x00000BBB</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>7</v>
       </c>
       <c r="B21">
-        <v>659.25511382573995</v>
+        <v>48.994641413867498</v>
       </c>
       <c r="D21">
-        <v>1686</v>
+        <v>2835</v>
       </c>
       <c r="E21">
-        <v>210.75</v>
+        <v>354.375</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1407,18 +1407,18 @@
         <v>#define G1 0x00000B12</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>8</v>
       </c>
       <c r="B22">
-        <v>698.45646286600777</v>
+        <v>51.908014399360134</v>
       </c>
       <c r="D22">
-        <v>1591</v>
+        <v>2676</v>
       </c>
       <c r="E22">
-        <v>198.875</v>
+        <v>334.5</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1455,18 +1455,18 @@
         <v>#define Ab1 0x00000A74</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>9</v>
       </c>
       <c r="B23">
-        <v>739.98884542326891</v>
+        <v>54.99462555759294</v>
       </c>
       <c r="D23">
-        <v>1502</v>
+        <v>2526</v>
       </c>
       <c r="E23">
-        <v>187.75</v>
+        <v>315.75</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1503,18 +1503,18 @@
         <v>#define A1 0x000009DD</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10</v>
       </c>
       <c r="B24">
-        <v>783.99087196349865</v>
+        <v>58.264776166378198</v>
       </c>
       <c r="D24">
-        <v>1418</v>
+        <v>2384</v>
       </c>
       <c r="E24">
-        <v>177.25</v>
+        <v>298</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1551,18 +1551,18 @@
         <v>#define Bb1 0x00000950</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>11</v>
       </c>
       <c r="B25">
-        <v>830.60939515989048</v>
+        <v>61.729380049382776</v>
       </c>
       <c r="D25">
-        <v>1338</v>
+        <v>2250</v>
       </c>
       <c r="E25">
-        <v>167.25</v>
+        <v>281.25</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1599,7 +1599,7 @@
         <v>#define B1 0x000008CA</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G26">
         <v>2</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>#define C2 0x0000084B</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G27">
         <v>2</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>#define Db2 0x000007D4</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G28">
         <v>2</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>#define D2 0x00000764</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G29">
         <v>2</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>#define Eb2 0x000006FA</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G30">
         <v>2</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>#define E2 0x00000695</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G31">
         <v>2</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>#define F2 0x00000637</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G32">
         <v>2</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>#define Gb2 0x000005DE</v>
       </c>
     </row>
-    <row r="33" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G33">
         <v>2</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>#define G2 0x00000589</v>
       </c>
     </row>
-    <row r="34" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G34">
         <v>2</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>#define Ab2 0x0000053A</v>
       </c>
     </row>
-    <row r="35" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G35">
         <v>2</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>#define A2 0x000004EF</v>
       </c>
     </row>
-    <row r="36" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G36">
         <v>2</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>#define Bb2 0x000004A8</v>
       </c>
     </row>
-    <row r="37" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G37">
         <v>2</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>#define B2 0x00000465</v>
       </c>
     </row>
-    <row r="38" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G38">
         <v>3</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>#define C3 0x00000426</v>
       </c>
     </row>
-    <row r="39" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G39">
         <v>3</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>#define Db3 0x000003EA</v>
       </c>
     </row>
-    <row r="40" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G40">
         <v>3</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>#define D3 0x000003B2</v>
       </c>
     </row>
-    <row r="41" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G41">
         <v>3</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>#define Eb3 0x0000037D</v>
       </c>
     </row>
-    <row r="42" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G42">
         <v>3</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>#define E3 0x0000034B</v>
       </c>
     </row>
-    <row r="43" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G43">
         <v>3</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>#define F3 0x0000031B</v>
       </c>
     </row>
-    <row r="44" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G44">
         <v>3</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>#define Gb3 0x000002EF</v>
       </c>
     </row>
-    <row r="45" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G45">
         <v>3</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>#define G3 0x000002C5</v>
       </c>
     </row>
-    <row r="46" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G46">
         <v>3</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>#define Ab3 0x0000029D</v>
       </c>
     </row>
-    <row r="47" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G47">
         <v>3</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>#define A3 0x00000277</v>
       </c>
     </row>
-    <row r="48" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G48">
         <v>3</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>#define Bb3 0x00000254</v>
       </c>
     </row>
-    <row r="49" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G49">
         <v>3</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>#define B3 0x00000233</v>
       </c>
     </row>
-    <row r="50" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G50">
         <v>4</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>#define C4 0x00000213</v>
       </c>
     </row>
-    <row r="51" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G51">
         <v>4</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>#define Db4 0x000001F5</v>
       </c>
     </row>
-    <row r="52" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G52">
         <v>4</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>#define D4 0x000001D9</v>
       </c>
     </row>
-    <row r="53" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G53">
         <v>4</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>#define Eb4 0x000001BE</v>
       </c>
     </row>
-    <row r="54" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G54">
         <v>4</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>#define E4 0x000001A5</v>
       </c>
     </row>
-    <row r="55" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G55">
         <v>4</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>#define F4 0x0000018E</v>
       </c>
     </row>
-    <row r="56" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G56">
         <v>4</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>#define Gb4 0x00000177</v>
       </c>
     </row>
-    <row r="57" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G57">
         <v>4</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>#define G4 0x00000162</v>
       </c>
     </row>
-    <row r="58" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G58">
         <v>4</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>#define Ab4 0x0000014E</v>
       </c>
     </row>
-    <row r="59" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G59">
         <v>4</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>#define A4 0x0000013C</v>
       </c>
     </row>
-    <row r="60" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G60">
         <v>4</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>#define Bb4 0x0000012A</v>
       </c>
     </row>
-    <row r="61" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G61">
         <v>4</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>#define B4 0x00000119</v>
       </c>
     </row>
-    <row r="62" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G62">
         <v>5</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>#define C5 0x00000109</v>
       </c>
     </row>
-    <row r="63" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G63">
         <v>5</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>#define Db5 0x000000FB</v>
       </c>
     </row>
-    <row r="64" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G64">
         <v>5</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>#define D5 0x000000EC</v>
       </c>
     </row>
-    <row r="65" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G65">
         <v>5</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>#define Eb5 0x000000DF</v>
       </c>
     </row>
-    <row r="66" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G66">
         <v>5</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>#define E5 0x000000D3</v>
       </c>
     </row>
-    <row r="67" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G67">
         <v>5</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>#define F5 0x000000C7</v>
       </c>
     </row>
-    <row r="68" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G68">
         <v>5</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>#define Gb5 0x000000BC</v>
       </c>
     </row>
-    <row r="69" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G69">
         <v>5</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>#define G5 0x000000B1</v>
       </c>
     </row>
-    <row r="70" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G70">
         <v>5</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>#define Ab5 0x000000A7</v>
       </c>
     </row>
-    <row r="71" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G71">
         <v>5</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>#define A5 0x0000009E</v>
       </c>
     </row>
-    <row r="72" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G72">
         <v>5</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>#define Bb5 0x00000095</v>
       </c>
     </row>
-    <row r="73" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G73">
         <v>5</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>#define B5 0x0000008D</v>
       </c>
     </row>
-    <row r="74" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G74">
         <v>6</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>#define C6 0x00000085</v>
       </c>
     </row>
-    <row r="75" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G75">
         <v>6</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>#define Db6 0x0000007D</v>
       </c>
     </row>
-    <row r="76" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G76">
         <v>6</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>#define D6 0x00000076</v>
       </c>
     </row>
-    <row r="77" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G77">
         <v>6</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>#define Eb6 0x00000070</v>
       </c>
     </row>
-    <row r="78" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G78">
         <v>6</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>#define E6 0x00000069</v>
       </c>
     </row>
-    <row r="79" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G79">
         <v>6</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>#define F6 0x00000063</v>
       </c>
     </row>
-    <row r="80" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G80">
         <v>6</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>#define Gb6 0x0000005E</v>
       </c>
     </row>
-    <row r="81" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G81">
         <v>6</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>#define G6 0x00000059</v>
       </c>
     </row>
-    <row r="82" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G82">
         <v>6</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>#define Ab6 0x00000054</v>
       </c>
     </row>
-    <row r="83" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G83">
         <v>6</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>#define A6 0x0000004F</v>
       </c>
     </row>
-    <row r="84" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G84">
         <v>6</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>#define Bb6 0x0000004A</v>
       </c>
     </row>
-    <row r="85" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G85">
         <v>6</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>#define B6 0x00000046</v>
       </c>
     </row>
-    <row r="86" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G86">
         <v>7</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>#define C7 0x00000042</v>
       </c>
     </row>
-    <row r="87" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G87">
         <v>7</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>#define Db7 0x0000003F</v>
       </c>
     </row>
-    <row r="88" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G88">
         <v>7</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>#define D7 0x0000003B</v>
       </c>
     </row>
-    <row r="89" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G89">
         <v>7</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>#define Eb7 0x00000038</v>
       </c>
     </row>
-    <row r="90" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G90">
         <v>7</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>#define E7 0x00000035</v>
       </c>
     </row>
-    <row r="91" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G91">
         <v>7</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>#define F7 0x00000032</v>
       </c>
     </row>
-    <row r="92" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G92">
         <v>7</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>#define Gb7 0x0000002F</v>
       </c>
     </row>
-    <row r="93" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G93">
         <v>7</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>#define G7 0x0000002C</v>
       </c>
     </row>
-    <row r="94" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G94">
         <v>7</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>#define Ab7 0x0000002A</v>
       </c>
     </row>
-    <row r="95" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G95">
         <v>7</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>#define A7 0x00000027</v>
       </c>
     </row>
-    <row r="96" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G96">
         <v>7</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>#define Bb7 0x00000025</v>
       </c>
     </row>
-    <row r="97" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G97">
         <v>7</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>#define B7 0x00000023</v>
       </c>
     </row>
-    <row r="98" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G98">
         <v>8</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>#define C8 0x00000021</v>
       </c>
     </row>
-    <row r="99" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G99">
         <v>8</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>#define Db8 0x0000001F</v>
       </c>
     </row>
-    <row r="100" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G100">
         <v>8</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>#define D8 0x0000001E</v>
       </c>
     </row>
-    <row r="101" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G101">
         <v>8</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>#define Eb8 0x0000001C</v>
       </c>
     </row>
-    <row r="102" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G102">
         <v>8</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>#define E8 0x0000001A</v>
       </c>
     </row>
-    <row r="103" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G103">
         <v>8</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>#define F8 0x00000019</v>
       </c>
     </row>
-    <row r="104" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G104">
         <v>8</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>#define Gb8 0x00000017</v>
       </c>
     </row>
-    <row r="105" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G105">
         <v>8</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>#define G8 0x00000016</v>
       </c>
     </row>
-    <row r="106" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G106">
         <v>8</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>#define Ab8 0x00000015</v>
       </c>
     </row>
-    <row r="107" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G107">
         <v>8</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>#define A8 0x00000014</v>
       </c>
     </row>
-    <row r="108" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G108">
         <v>8</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>#define Bb8 0x00000013</v>
       </c>
     </row>
-    <row r="109" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G109">
         <v>8</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>#define B8 0x00000012</v>
       </c>
     </row>
-    <row r="110" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G110">
         <v>9</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>#define C9 0x00000011</v>
       </c>
     </row>
-    <row r="111" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G111">
         <v>9</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>#define Db9 0x00000010</v>
       </c>
     </row>
-    <row r="112" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G112">
         <v>9</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>#define D9 0x0000000F</v>
       </c>
     </row>
-    <row r="113" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G113">
         <v>9</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>#define Eb9 0x0000000E</v>
       </c>
     </row>
-    <row r="114" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G114">
         <v>9</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>#define E9 0x0000000D</v>
       </c>
     </row>
-    <row r="115" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G115">
         <v>9</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>#define F9 0x0000000C</v>
       </c>
     </row>
-    <row r="116" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G116">
         <v>9</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>#define Gb9 0x0000000C</v>
       </c>
     </row>
-    <row r="117" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G117">
         <v>9</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>#define G9 0x0000000B</v>
       </c>
     </row>
-    <row r="118" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G118">
         <v>9</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>#define Ab9 0x0000000A</v>
       </c>
     </row>
-    <row r="119" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G119">
         <v>9</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>#define A9 0x0000000A</v>
       </c>
     </row>
-    <row r="120" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G120">
         <v>9</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>#define Bb9 0x00000009</v>
       </c>
     </row>
-    <row r="121" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G121">
         <v>9</v>
       </c>

--- a/freq_calcs.xlsx
+++ b/freq_calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MANTY\BlackboardSynth_MANTIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C853F8-E976-4B31-BE70-3018D8384D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD38A36C-A5DE-43A8-9E66-8FB4372FFC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,13 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="29">
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Down</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="28">
   <si>
     <t>Mult</t>
   </si>
@@ -79,9 +73,6 @@
   </si>
   <si>
     <t>Div:</t>
-  </si>
-  <si>
-    <t>Div/8:</t>
   </si>
   <si>
     <t>Freq.</t>
@@ -146,6 +137,12 @@
   <si>
     <t>Header</t>
   </si>
+  <si>
+    <t>Divis:</t>
+  </si>
+  <si>
+    <t>Div/16:</t>
+  </si>
 </sst>
 </file>
 
@@ -160,12 +157,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -180,8 +183,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,55 +469,50 @@
   <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
     <col min="15" max="15" width="10.6640625" customWidth="1"/>
     <col min="17" max="17" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -526,15 +525,11 @@
       <c r="C2">
         <v>100000000</v>
       </c>
-      <c r="E2" cm="1">
-        <f t="array" ref="E2:E9">C2/(C3*C4*A2:A9)</f>
-        <v>3516.1744022503517</v>
-      </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I2" t="str">
         <f>_xlfn.CONCAT(H2,G2)</f>
@@ -574,14 +569,11 @@
       <c r="C3">
         <v>316</v>
       </c>
-      <c r="E3">
-        <v>1758.0872011251759</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I3" t="str">
         <f>_xlfn.CONCAT(H3,G3)</f>
@@ -619,14 +611,11 @@
       <c r="C4">
         <v>90</v>
       </c>
-      <c r="E4">
-        <v>879.04360056258793</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I4" t="str">
         <f>_xlfn.CONCAT(H4,G4)</f>
@@ -661,14 +650,11 @@
       <c r="A5">
         <v>8</v>
       </c>
-      <c r="E5">
-        <v>439.52180028129396</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" ref="I5:I68" si="3">_xlfn.CONCAT(H5,G5)</f>
@@ -703,14 +689,11 @@
       <c r="A6">
         <v>16</v>
       </c>
-      <c r="E6">
-        <v>219.76090014064698</v>
-      </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="3"/>
@@ -745,14 +728,11 @@
       <c r="A7">
         <v>32</v>
       </c>
-      <c r="E7">
-        <v>109.88045007032349</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="3"/>
@@ -787,14 +767,11 @@
       <c r="A8">
         <v>64</v>
       </c>
-      <c r="E8">
-        <v>54.940225035161745</v>
-      </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="3"/>
@@ -826,14 +803,11 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E9" t="e">
-        <v>#DIV/0!</v>
-      </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="3"/>
@@ -869,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="3"/>
@@ -905,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="3"/>
@@ -941,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="3"/>
@@ -974,22 +948,25 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="3"/>
@@ -1025,22 +1002,22 @@
         <v>0</v>
       </c>
       <c r="B14" cm="1">
-        <f t="array" ref="B14:B25">32.7*(2^(1/12))^A14:A25</f>
-        <v>32.700000000000003</v>
+        <f t="array" ref="B14:B25">261.6*(2^(1/12))^A14:A25</f>
+        <v>261.60000000000002</v>
+      </c>
+      <c r="C14" cm="1">
+        <f t="array" ref="C14:C25">ROUNDUP(C2/(45*B14:B25), 0)</f>
+        <v>8495</v>
       </c>
       <c r="D14" cm="1">
-        <f t="array" ref="D14:D25">ROUNDUP(C2/(720*B14:B25), 0)</f>
-        <v>4248</v>
-      </c>
-      <c r="E14" cm="1">
-        <f t="array" ref="E14:E25">D14:D25/8</f>
-        <v>531</v>
+        <f t="array" ref="D14:D25">C14:C25/16</f>
+        <v>530.9375</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="3"/>
@@ -1076,19 +1053,19 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>34.644443185548958</v>
+        <v>277.15554548439167</v>
+      </c>
+      <c r="C15">
+        <v>8018</v>
       </c>
       <c r="D15">
-        <v>4009</v>
-      </c>
-      <c r="E15">
         <v>501.125</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="3"/>
@@ -1124,19 +1101,19 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>36.704508979716501</v>
+        <v>293.636071837732</v>
+      </c>
+      <c r="C16">
+        <v>7568</v>
       </c>
       <c r="D16">
-        <v>3784</v>
-      </c>
-      <c r="E16">
         <v>473</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="3"/>
@@ -1172,19 +1149,19 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>38.887072660588991</v>
+        <v>311.09658128471193</v>
+      </c>
+      <c r="C17">
+        <v>7144</v>
       </c>
       <c r="D17">
-        <v>3572</v>
-      </c>
-      <c r="E17">
         <v>446.5</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="3"/>
@@ -1220,19 +1197,19 @@
         <v>4</v>
       </c>
       <c r="B18">
-        <v>41.199418331562356</v>
+        <v>329.59534665249885</v>
+      </c>
+      <c r="C18">
+        <v>6743</v>
       </c>
       <c r="D18">
-        <v>3372</v>
-      </c>
-      <c r="E18">
-        <v>421.5</v>
+        <v>421.4375</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="3"/>
@@ -1268,19 +1245,19 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <v>43.649263231360131</v>
+        <v>349.19410585088104</v>
+      </c>
+      <c r="C19">
+        <v>6364</v>
       </c>
       <c r="D19">
-        <v>3182</v>
-      </c>
-      <c r="E19">
         <v>397.75</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="3"/>
@@ -1316,19 +1293,19 @@
         <v>6</v>
       </c>
       <c r="B20">
-        <v>46.244783489600216</v>
+        <v>369.95826791680173</v>
+      </c>
+      <c r="C20">
+        <v>6007</v>
       </c>
       <c r="D20">
-        <v>3004</v>
-      </c>
-      <c r="E20">
-        <v>375.5</v>
+        <v>375.4375</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="3"/>
@@ -1364,19 +1341,19 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>48.994641413867498</v>
+        <v>391.95713131093999</v>
+      </c>
+      <c r="C21">
+        <v>5670</v>
       </c>
       <c r="D21">
-        <v>2835</v>
-      </c>
-      <c r="E21">
         <v>354.375</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="3"/>
@@ -1412,19 +1389,19 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <v>51.908014399360134</v>
+        <v>415.26411519488107</v>
+      </c>
+      <c r="C22">
+        <v>5352</v>
       </c>
       <c r="D22">
-        <v>2676</v>
-      </c>
-      <c r="E22">
         <v>334.5</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="3"/>
@@ -1460,19 +1437,19 @@
         <v>9</v>
       </c>
       <c r="B23">
-        <v>54.99462555759294</v>
+        <v>439.95700446074352</v>
+      </c>
+      <c r="C23">
+        <v>5051</v>
       </c>
       <c r="D23">
-        <v>2526</v>
-      </c>
-      <c r="E23">
-        <v>315.75</v>
+        <v>315.6875</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="3"/>
@@ -1508,19 +1485,19 @@
         <v>10</v>
       </c>
       <c r="B24">
-        <v>58.264776166378198</v>
+        <v>466.11820933102558</v>
+      </c>
+      <c r="C24">
+        <v>4768</v>
       </c>
       <c r="D24">
-        <v>2384</v>
-      </c>
-      <c r="E24">
         <v>298</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="3"/>
@@ -1556,19 +1533,19 @@
         <v>11</v>
       </c>
       <c r="B25">
-        <v>61.729380049382776</v>
+        <v>493.83504039506221</v>
+      </c>
+      <c r="C25">
+        <v>4500</v>
       </c>
       <c r="D25">
-        <v>2250</v>
-      </c>
-      <c r="E25">
         <v>281.25</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="3"/>
@@ -1604,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="3"/>
@@ -1640,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="3"/>
@@ -1676,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="3"/>
@@ -1712,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="3"/>
@@ -1748,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="3"/>
@@ -1784,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="3"/>
@@ -1820,7 +1797,7 @@
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="3"/>
@@ -1856,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="3"/>
@@ -1892,7 +1869,7 @@
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="3"/>
@@ -1928,7 +1905,7 @@
         <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="3"/>
@@ -1964,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="3"/>
@@ -2000,7 +1977,7 @@
         <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="3"/>
@@ -2036,7 +2013,7 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="3"/>
@@ -2072,7 +2049,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="3"/>
@@ -2108,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="3"/>
@@ -2144,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="3"/>
@@ -2180,7 +2157,7 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="3"/>
@@ -2216,7 +2193,7 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="3"/>
@@ -2252,7 +2229,7 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="3"/>
@@ -2288,7 +2265,7 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="3"/>
@@ -2324,7 +2301,7 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="3"/>
@@ -2360,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="3"/>
@@ -2396,7 +2373,7 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="3"/>
@@ -2432,7 +2409,7 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="3"/>
@@ -2464,23 +2441,23 @@
       </c>
     </row>
     <row r="50" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="G50">
+      <c r="G50" s="1">
         <v>4</v>
       </c>
-      <c r="H50" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" t="str">
+      <c r="H50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="1" t="str">
         <f t="shared" si="3"/>
         <v>C4</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="1">
         <v>49</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="1">
         <v>261.60000000000002</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="1">
         <v>530.9208290859666</v>
       </c>
       <c r="M50">
@@ -2504,7 +2481,7 @@
         <v>4</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="3"/>
@@ -2540,7 +2517,7 @@
         <v>4</v>
       </c>
       <c r="H52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="3"/>
@@ -2576,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="H53" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="3"/>
@@ -2612,7 +2589,7 @@
         <v>4</v>
       </c>
       <c r="H54" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="3"/>
@@ -2648,7 +2625,7 @@
         <v>4</v>
       </c>
       <c r="H55" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="3"/>
@@ -2684,7 +2661,7 @@
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="3"/>
@@ -2720,7 +2697,7 @@
         <v>4</v>
       </c>
       <c r="H57" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="3"/>
@@ -2756,7 +2733,7 @@
         <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="3"/>
@@ -2792,7 +2769,7 @@
         <v>4</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="3"/>
@@ -2828,7 +2805,7 @@
         <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="3"/>
@@ -2864,7 +2841,7 @@
         <v>4</v>
       </c>
       <c r="H61" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="3"/>
@@ -2900,7 +2877,7 @@
         <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="3"/>
@@ -2936,7 +2913,7 @@
         <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="3"/>
@@ -2972,7 +2949,7 @@
         <v>5</v>
       </c>
       <c r="H64" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="3"/>
@@ -3008,7 +2985,7 @@
         <v>5</v>
       </c>
       <c r="H65" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="3"/>
@@ -3044,7 +3021,7 @@
         <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="3"/>
@@ -3080,7 +3057,7 @@
         <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" si="3"/>
@@ -3116,7 +3093,7 @@
         <v>5</v>
       </c>
       <c r="H68" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="3"/>
@@ -3152,7 +3129,7 @@
         <v>5</v>
       </c>
       <c r="H69" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" ref="I69:I121" si="7">_xlfn.CONCAT(H69,G69)</f>
@@ -3188,7 +3165,7 @@
         <v>5</v>
       </c>
       <c r="H70" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="7"/>
@@ -3224,7 +3201,7 @@
         <v>5</v>
       </c>
       <c r="H71" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="7"/>
@@ -3260,7 +3237,7 @@
         <v>5</v>
       </c>
       <c r="H72" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="7"/>
@@ -3296,7 +3273,7 @@
         <v>5</v>
       </c>
       <c r="H73" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="7"/>
@@ -3332,7 +3309,7 @@
         <v>6</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="7"/>
@@ -3368,7 +3345,7 @@
         <v>6</v>
       </c>
       <c r="H75" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="7"/>
@@ -3404,7 +3381,7 @@
         <v>6</v>
       </c>
       <c r="H76" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="7"/>
@@ -3440,7 +3417,7 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="7"/>
@@ -3476,7 +3453,7 @@
         <v>6</v>
       </c>
       <c r="H78" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="7"/>
@@ -3512,7 +3489,7 @@
         <v>6</v>
       </c>
       <c r="H79" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="7"/>
@@ -3548,7 +3525,7 @@
         <v>6</v>
       </c>
       <c r="H80" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="7"/>
@@ -3584,7 +3561,7 @@
         <v>6</v>
       </c>
       <c r="H81" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="7"/>
@@ -3620,7 +3597,7 @@
         <v>6</v>
       </c>
       <c r="H82" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" si="7"/>
@@ -3656,7 +3633,7 @@
         <v>6</v>
       </c>
       <c r="H83" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I83" t="str">
         <f t="shared" si="7"/>
@@ -3692,7 +3669,7 @@
         <v>6</v>
       </c>
       <c r="H84" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I84" t="str">
         <f t="shared" si="7"/>
@@ -3728,7 +3705,7 @@
         <v>6</v>
       </c>
       <c r="H85" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I85" t="str">
         <f t="shared" si="7"/>
@@ -3764,7 +3741,7 @@
         <v>7</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I86" t="str">
         <f t="shared" si="7"/>
@@ -3800,7 +3777,7 @@
         <v>7</v>
       </c>
       <c r="H87" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="7"/>
@@ -3836,7 +3813,7 @@
         <v>7</v>
       </c>
       <c r="H88" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="7"/>
@@ -3872,7 +3849,7 @@
         <v>7</v>
       </c>
       <c r="H89" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I89" t="str">
         <f t="shared" si="7"/>
@@ -3908,7 +3885,7 @@
         <v>7</v>
       </c>
       <c r="H90" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I90" t="str">
         <f t="shared" si="7"/>
@@ -3944,7 +3921,7 @@
         <v>7</v>
       </c>
       <c r="H91" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I91" t="str">
         <f t="shared" si="7"/>
@@ -3980,7 +3957,7 @@
         <v>7</v>
       </c>
       <c r="H92" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I92" t="str">
         <f t="shared" si="7"/>
@@ -4016,7 +3993,7 @@
         <v>7</v>
       </c>
       <c r="H93" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I93" t="str">
         <f t="shared" si="7"/>
@@ -4052,7 +4029,7 @@
         <v>7</v>
       </c>
       <c r="H94" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I94" t="str">
         <f t="shared" si="7"/>
@@ -4088,7 +4065,7 @@
         <v>7</v>
       </c>
       <c r="H95" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I95" t="str">
         <f t="shared" si="7"/>
@@ -4124,7 +4101,7 @@
         <v>7</v>
       </c>
       <c r="H96" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I96" t="str">
         <f t="shared" si="7"/>
@@ -4160,7 +4137,7 @@
         <v>7</v>
       </c>
       <c r="H97" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I97" t="str">
         <f t="shared" si="7"/>
@@ -4196,7 +4173,7 @@
         <v>8</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I98" t="str">
         <f t="shared" si="7"/>
@@ -4232,7 +4209,7 @@
         <v>8</v>
       </c>
       <c r="H99" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I99" t="str">
         <f t="shared" si="7"/>
@@ -4268,7 +4245,7 @@
         <v>8</v>
       </c>
       <c r="H100" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I100" t="str">
         <f t="shared" si="7"/>
@@ -4304,7 +4281,7 @@
         <v>8</v>
       </c>
       <c r="H101" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I101" t="str">
         <f t="shared" si="7"/>
@@ -4340,7 +4317,7 @@
         <v>8</v>
       </c>
       <c r="H102" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I102" t="str">
         <f t="shared" si="7"/>
@@ -4376,7 +4353,7 @@
         <v>8</v>
       </c>
       <c r="H103" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I103" t="str">
         <f t="shared" si="7"/>
@@ -4412,7 +4389,7 @@
         <v>8</v>
       </c>
       <c r="H104" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I104" t="str">
         <f t="shared" si="7"/>
@@ -4448,7 +4425,7 @@
         <v>8</v>
       </c>
       <c r="H105" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I105" t="str">
         <f t="shared" si="7"/>
@@ -4484,7 +4461,7 @@
         <v>8</v>
       </c>
       <c r="H106" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I106" t="str">
         <f t="shared" si="7"/>
@@ -4520,7 +4497,7 @@
         <v>8</v>
       </c>
       <c r="H107" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I107" t="str">
         <f t="shared" si="7"/>
@@ -4556,7 +4533,7 @@
         <v>8</v>
       </c>
       <c r="H108" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I108" t="str">
         <f t="shared" si="7"/>
@@ -4592,7 +4569,7 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I109" t="str">
         <f t="shared" si="7"/>
@@ -4628,7 +4605,7 @@
         <v>9</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I110" t="str">
         <f t="shared" si="7"/>
@@ -4664,7 +4641,7 @@
         <v>9</v>
       </c>
       <c r="H111" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I111" t="str">
         <f t="shared" si="7"/>
@@ -4700,7 +4677,7 @@
         <v>9</v>
       </c>
       <c r="H112" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I112" t="str">
         <f t="shared" si="7"/>
@@ -4736,7 +4713,7 @@
         <v>9</v>
       </c>
       <c r="H113" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" si="7"/>
@@ -4772,7 +4749,7 @@
         <v>9</v>
       </c>
       <c r="H114" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I114" t="str">
         <f t="shared" si="7"/>
@@ -4808,7 +4785,7 @@
         <v>9</v>
       </c>
       <c r="H115" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I115" t="str">
         <f t="shared" si="7"/>
@@ -4844,7 +4821,7 @@
         <v>9</v>
       </c>
       <c r="H116" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I116" t="str">
         <f t="shared" si="7"/>
@@ -4880,7 +4857,7 @@
         <v>9</v>
       </c>
       <c r="H117" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I117" t="str">
         <f t="shared" si="7"/>
@@ -4916,7 +4893,7 @@
         <v>9</v>
       </c>
       <c r="H118" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I118" t="str">
         <f t="shared" si="7"/>
@@ -4952,7 +4929,7 @@
         <v>9</v>
       </c>
       <c r="H119" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I119" t="str">
         <f t="shared" si="7"/>
@@ -4988,7 +4965,7 @@
         <v>9</v>
       </c>
       <c r="H120" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I120" t="str">
         <f t="shared" si="7"/>
@@ -5024,7 +5001,7 @@
         <v>9</v>
       </c>
       <c r="H121" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I121" t="str">
         <f t="shared" si="7"/>
